--- a/tutorial/tutorial_data/pyscnet_scanpy_pbmc/CD4 T_centrality.xlsx
+++ b/tutorial/tutorial_data/pyscnet_scanpy_pbmc/CD4 T_centrality.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J162"/>
+  <dimension ref="A1:J192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,1157 +489,1157 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GNG11</t>
+          <t>CD8A</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00943380603091969</v>
+        <v>0.00406997111077009</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1278859447004608</v>
+        <v>0.7251908396946565</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03750000000000001</v>
+        <v>0.6210526315789473</v>
       </c>
       <c r="E2" t="n">
-        <v>0.007794421551033329</v>
+        <v>0.006883657954964103</v>
       </c>
       <c r="F2" t="n">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G2" t="n">
-        <v>68</v>
+        <v>167.5</v>
       </c>
       <c r="H2" t="n">
-        <v>131.5</v>
+        <v>167.5</v>
       </c>
       <c r="I2" t="n">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="J2" t="n">
-        <v>126.625</v>
+        <v>169.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LY6G6F</t>
+          <t>CD8B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0119733057443521</v>
+        <v>0.00424175312698891</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1282405268022181</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05625</v>
+        <v>0.6</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02171591438055349</v>
+        <v>0.006820007557950094</v>
       </c>
       <c r="F3" t="n">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G3" t="n">
-        <v>69</v>
+        <v>155.5</v>
       </c>
       <c r="H3" t="n">
-        <v>157.5</v>
+        <v>155.5</v>
       </c>
       <c r="I3" t="n">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="J3" t="n">
-        <v>145.125</v>
+        <v>165.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AP001189.4</t>
+          <t>RPS27A</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02032357060680898</v>
+        <v>0.001553157255363808</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1806722005208333</v>
+        <v>0.625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05625</v>
+        <v>0.4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01105009586168263</v>
+        <v>0.004733149128402588</v>
       </c>
       <c r="F4" t="n">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="G4" t="n">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="H4" t="n">
-        <v>157.5</v>
+        <v>32</v>
       </c>
       <c r="I4" t="n">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="J4" t="n">
-        <v>159.125</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TREML1</t>
+          <t>RPS3A</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1286646770204175</v>
+        <v>0.001979576869841612</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1924497226074896</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="D5" t="n">
-        <v>0.10625</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03501209551092714</v>
+        <v>0.00584468061463552</v>
       </c>
       <c r="F5" t="n">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="G5" t="n">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="H5" t="n">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c r="I5" t="n">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="J5" t="n">
-        <v>182.25</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SPARC</t>
+          <t>RPS15A</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001874948485604024</v>
+        <v>0.002232309679185863</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1653828963051251</v>
+        <v>0.6506849315068494</v>
       </c>
       <c r="D6" t="n">
-        <v>0.025</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00834948148507474</v>
+        <v>0.005527178078656663</v>
       </c>
       <c r="F6" t="n">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G6" t="n">
-        <v>96</v>
+        <v>81.5</v>
       </c>
       <c r="H6" t="n">
-        <v>104.5</v>
+        <v>81.5</v>
       </c>
       <c r="I6" t="n">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="J6" t="n">
-        <v>120.125</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TMEM40</t>
+          <t>HLA-B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09157057898644326</v>
+        <v>0.003292931051142224</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1696286674816626</v>
+        <v>0.6884057971014492</v>
       </c>
       <c r="D7" t="n">
-        <v>0.10625</v>
+        <v>0.5473684210526316</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03474116471242016</v>
+        <v>0.005528845827944067</v>
       </c>
       <c r="F7" t="n">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="G7" t="n">
-        <v>98</v>
+        <v>134.5</v>
       </c>
       <c r="H7" t="n">
-        <v>189</v>
+        <v>134.5</v>
       </c>
       <c r="I7" t="n">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c r="J7" t="n">
-        <v>171.75</v>
+        <v>132.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HLA-DOB</t>
+          <t>HLA-C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.006966083814508947</v>
+        <v>0.001935511272580932</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1657780764635604</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03125</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="E8" t="n">
-        <v>0.008118497367977089</v>
+        <v>0.005188080952000499</v>
       </c>
       <c r="F8" t="n">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="G8" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="H8" t="n">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="I8" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="J8" t="n">
-        <v>129.75</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ITGA2B</t>
+          <t>HLA-DRB1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0462891009328448</v>
+        <v>0.002332747109297743</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1651860119047619</v>
+        <v>0.6713780918727915</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03750000000000001</v>
+        <v>0.5105263157894737</v>
       </c>
       <c r="E9" t="n">
-        <v>0.007169640692766657</v>
+        <v>0.006298271790028092</v>
       </c>
       <c r="F9" t="n">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="G9" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H9" t="n">
-        <v>131.5</v>
+        <v>115</v>
       </c>
       <c r="I9" t="n">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="J9" t="n">
-        <v>142.875</v>
+        <v>124.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CD9</t>
+          <t>HLA-DRB5</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002513875522882524</v>
+        <v>0.001514724028126365</v>
       </c>
       <c r="C10" t="n">
-        <v>0.125118349864743</v>
+        <v>0.6397306397306397</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03125</v>
+        <v>0.4368421052631579</v>
       </c>
       <c r="E10" t="n">
-        <v>0.006465495209205035</v>
+        <v>0.005555263239343502</v>
       </c>
       <c r="F10" t="n">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="G10" t="n">
-        <v>66</v>
+        <v>62.5</v>
       </c>
       <c r="H10" t="n">
-        <v>119</v>
+        <v>62.5</v>
       </c>
       <c r="I10" t="n">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="J10" t="n">
-        <v>113.75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CLU</t>
+          <t>B2M</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.004838217573643824</v>
+        <v>0.001704689942254925</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1644031398104265</v>
+        <v>0.625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="E11" t="n">
-        <v>0.007404172365435359</v>
+        <v>0.004909942437155882</v>
       </c>
       <c r="F11" t="n">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="G11" t="n">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="H11" t="n">
-        <v>131.5</v>
+        <v>32</v>
       </c>
       <c r="I11" t="n">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="J11" t="n">
-        <v>127.375</v>
+        <v>46.75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ACRBP</t>
+          <t>S100A4</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002751572327044025</v>
+        <v>0.0007915374642473444</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02</v>
+        <v>0.6089743589743589</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01875</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="E12" t="n">
-        <v>0.008776278418445563</v>
+        <v>0.004681122780591294</v>
       </c>
       <c r="F12" t="n">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>57</v>
+        <v>12.5</v>
       </c>
       <c r="H12" t="n">
-        <v>91.5</v>
+        <v>12.5</v>
       </c>
       <c r="I12" t="n">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="J12" t="n">
-        <v>105.375</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C2orf88</t>
+          <t>RPL21</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.861635220125786e-05</v>
+        <v>0.001559471949210131</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.6209150326797386</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0125</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01035083996386616</v>
+        <v>0.005593165561787764</v>
       </c>
       <c r="F13" t="n">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="G13" t="n">
-        <v>55.5</v>
+        <v>27</v>
       </c>
       <c r="H13" t="n">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="I13" t="n">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="J13" t="n">
-        <v>101.875</v>
+        <v>56.75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CLEC10A</t>
+          <t>RPS27</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03089460853538609</v>
+        <v>0.001436554331725011</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1503317984832069</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="D14" t="n">
-        <v>0.025</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="E14" t="n">
-        <v>0.008570959069431621</v>
+        <v>0.005066852753984595</v>
       </c>
       <c r="F14" t="n">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="G14" t="n">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="H14" t="n">
-        <v>104.5</v>
+        <v>29</v>
       </c>
       <c r="I14" t="n">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="J14" t="n">
-        <v>134.625</v>
+        <v>42.75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SERPINF1</t>
+          <t>CCL5</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.04547165880494877</v>
+        <v>0.004175598037258737</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1351083252190847</v>
+        <v>0.7251908396946565</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05625</v>
+        <v>0.6210526315789473</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02631344055589329</v>
+        <v>0.007049516915032539</v>
       </c>
       <c r="F15" t="n">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="G15" t="n">
-        <v>74</v>
+        <v>167.5</v>
       </c>
       <c r="H15" t="n">
-        <v>157.5</v>
+        <v>167.5</v>
       </c>
       <c r="I15" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="J15" t="n">
-        <v>154.625</v>
+        <v>171.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PKIG</t>
+          <t>NKG7</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.005440396185045045</v>
+        <v>0.004228379412726187</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1788096005154639</v>
+        <v>0.7251908396946565</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03750000000000001</v>
+        <v>0.6210526315789473</v>
       </c>
       <c r="E16" t="n">
-        <v>0.006225016299646304</v>
+        <v>0.006654065643606493</v>
       </c>
       <c r="F16" t="n">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="G16" t="n">
-        <v>117</v>
+        <v>167.5</v>
       </c>
       <c r="H16" t="n">
-        <v>131.5</v>
+        <v>167.5</v>
       </c>
       <c r="I16" t="n">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="J16" t="n">
-        <v>131.125</v>
+        <v>170.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PTGDR</t>
+          <t>LYAR</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.005909022774122405</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1617205710955711</v>
+        <v>0.7630522088353414</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0125</v>
+        <v>0.6894736842105263</v>
       </c>
       <c r="E17" t="n">
-        <v>0.005106665266523599</v>
+        <v>0.006754332877707474</v>
       </c>
       <c r="F17" t="n">
-        <v>61.5</v>
+        <v>189</v>
       </c>
       <c r="G17" t="n">
-        <v>89.5</v>
+        <v>187.5</v>
       </c>
       <c r="H17" t="n">
-        <v>76</v>
+        <v>187.5</v>
       </c>
       <c r="I17" t="n">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="J17" t="n">
-        <v>90.5</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GP9</t>
+          <t>CD37</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.00691824119574314</v>
+        <v>0.002846041497110616</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1455994228751312</v>
+        <v>0.6690140845070423</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01875</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="E18" t="n">
-        <v>0.004890651110022083</v>
+        <v>0.005046902178643909</v>
       </c>
       <c r="F18" t="n">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G18" t="n">
-        <v>77</v>
+        <v>110.5</v>
       </c>
       <c r="H18" t="n">
-        <v>91.5</v>
+        <v>110.5</v>
       </c>
       <c r="I18" t="n">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="J18" t="n">
-        <v>106.375</v>
+        <v>103.25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FCRL6</t>
+          <t>TSPAN13</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.620545073375262e-05</v>
+        <v>0.001320721495369696</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1274162075298439</v>
+        <v>0.6188925081433225</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01875</v>
+        <v>0.3842105263157894</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003831559972208395</v>
+        <v>0.005132041446046016</v>
       </c>
       <c r="F19" t="n">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="G19" t="n">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="H19" t="n">
-        <v>91.5</v>
+        <v>24</v>
       </c>
       <c r="I19" t="n">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="J19" t="n">
-        <v>84.125</v>
+        <v>39.75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CCL5</t>
+          <t>RPL10</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.003030584707218652</v>
+        <v>0.001727973832649787</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2102367424242425</v>
+        <v>0.6270627062706271</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03750000000000001</v>
+        <v>0.4052631578947368</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01388941780057069</v>
+        <v>0.005301764927326105</v>
       </c>
       <c r="F20" t="n">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="G20" t="n">
-        <v>164.5</v>
+        <v>37</v>
       </c>
       <c r="H20" t="n">
-        <v>131.5</v>
+        <v>37</v>
       </c>
       <c r="I20" t="n">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="J20" t="n">
-        <v>153.25</v>
+        <v>59.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NKG7</t>
+          <t>RPL13</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.04928740692497822</v>
+        <v>0.00165710929892321</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2195510284810127</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07500000000000001</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01372902248035789</v>
+        <v>0.005968989607992082</v>
       </c>
       <c r="F21" t="n">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="G21" t="n">
-        <v>179</v>
+        <v>51.5</v>
       </c>
       <c r="H21" t="n">
-        <v>169</v>
+        <v>51.5</v>
       </c>
       <c r="I21" t="n">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="J21" t="n">
-        <v>183.25</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MZB1</t>
+          <t>LGALS1</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.003315274944759253</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1181910136286201</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0125</v>
+        <v>0.6</v>
       </c>
       <c r="E22" t="n">
-        <v>0.005047897140846713</v>
+        <v>0.006445449769907846</v>
       </c>
       <c r="F22" t="n">
-        <v>61.5</v>
+        <v>134</v>
       </c>
       <c r="G22" t="n">
-        <v>61</v>
+        <v>155.5</v>
       </c>
       <c r="H22" t="n">
-        <v>76</v>
+        <v>155.5</v>
       </c>
       <c r="I22" t="n">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="J22" t="n">
-        <v>82.375</v>
+        <v>156.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PARVB</t>
+          <t>S100A11</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.007319655666597496</v>
+        <v>0.003551963197158485</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1184938087105038</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D23" t="n">
-        <v>0.025</v>
+        <v>0.6</v>
       </c>
       <c r="E23" t="n">
-        <v>0.006767057446130925</v>
+        <v>0.006417617563411084</v>
       </c>
       <c r="F23" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G23" t="n">
-        <v>64</v>
+        <v>155.5</v>
       </c>
       <c r="H23" t="n">
-        <v>104.5</v>
+        <v>155.5</v>
       </c>
       <c r="I23" t="n">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="J23" t="n">
-        <v>115.875</v>
+        <v>158.75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CD72</t>
+          <t>RPS6</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01241494116227258</v>
+        <v>0.0009246291298905142</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1797360751295337</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00637987560994585</v>
+        <v>0.005060574227574044</v>
       </c>
       <c r="F24" t="n">
-        <v>152</v>
+        <v>8</v>
       </c>
       <c r="G24" t="n">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="H24" t="n">
-        <v>149.5</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="J24" t="n">
-        <v>143.375</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AKR1C3</t>
+          <t>IL32</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.006957549371843767</v>
+        <v>0.002551718074000141</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1457523634453781</v>
+        <v>0.6761565836298933</v>
       </c>
       <c r="D25" t="n">
-        <v>0.025</v>
+        <v>0.5210526315789473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003658437358053478</v>
+        <v>0.005437652161095907</v>
       </c>
       <c r="F25" t="n">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G25" t="n">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="H25" t="n">
-        <v>104.5</v>
+        <v>124</v>
       </c>
       <c r="I25" t="n">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="J25" t="n">
-        <v>102.875</v>
+        <v>118.75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GZMH</t>
+          <t>HLA-A</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.03313834938005866</v>
+        <v>0.001147888654876729</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1433432334710744</v>
+        <v>0.6050955414012739</v>
       </c>
       <c r="D26" t="n">
-        <v>0.05625</v>
+        <v>0.3473684210526315</v>
       </c>
       <c r="E26" t="n">
-        <v>0.004904037751109046</v>
+        <v>0.003976685844011299</v>
       </c>
       <c r="F26" t="n">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="G26" t="n">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="H26" t="n">
-        <v>157.5</v>
+        <v>8</v>
       </c>
       <c r="I26" t="n">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="J26" t="n">
-        <v>134.125</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CD1C</t>
+          <t>RPS4X</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6.551362683438154e-05</v>
+        <v>0.002116004545194244</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1307787464655985</v>
+        <v>0.6506849315068494</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01875</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="E27" t="n">
-        <v>0.005552209429289892</v>
+        <v>0.005375983618278412</v>
       </c>
       <c r="F27" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G27" t="n">
-        <v>70</v>
+        <v>81.5</v>
       </c>
       <c r="H27" t="n">
-        <v>91.5</v>
+        <v>81.5</v>
       </c>
       <c r="I27" t="n">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="J27" t="n">
-        <v>96.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GPR56</t>
+          <t>RPL3</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.053908355795148e-05</v>
+        <v>0.001582413086252174</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1130857783211084</v>
+        <v>0.6209150326797386</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01875</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003199852902362224</v>
+        <v>0.005515634486276475</v>
       </c>
       <c r="F28" t="n">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="G28" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="H28" t="n">
-        <v>91.5</v>
+        <v>27</v>
       </c>
       <c r="I28" t="n">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="J28" t="n">
-        <v>80.875</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AC147651.3</t>
+          <t>RPS5</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3.930817610062893e-05</v>
+        <v>0.002211492752026731</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01428571428571429</v>
+        <v>0.6462585034013606</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0125</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="E29" t="n">
-        <v>0.006469726737743238</v>
+        <v>0.005152463372889396</v>
       </c>
       <c r="F29" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G29" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="H29" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I29" t="n">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="J29" t="n">
-        <v>92.5</v>
+        <v>79.75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CLDN5</t>
+          <t>RPL32</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.861635220125786e-05</v>
+        <v>0.001633225019529375</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.6291390728476821</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0125</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004166512471410338</v>
+        <v>0.005632740409455372</v>
       </c>
       <c r="F30" t="n">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="G30" t="n">
-        <v>55.5</v>
+        <v>43.5</v>
       </c>
       <c r="H30" t="n">
-        <v>76</v>
+        <v>43.5</v>
       </c>
       <c r="I30" t="n">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="J30" t="n">
-        <v>81.625</v>
+        <v>68.25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LGALS1</t>
+          <t>RPS23</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01074401994129591</v>
+        <v>0.00309433920945359</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1957069816643159</v>
+        <v>0.6761565836298933</v>
       </c>
       <c r="D31" t="n">
-        <v>0.03125</v>
+        <v>0.5210526315789473</v>
       </c>
       <c r="E31" t="n">
-        <v>0.005978651458337059</v>
+        <v>0.005384103425258012</v>
       </c>
       <c r="F31" t="n">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="G31" t="n">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="H31" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I31" t="n">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="J31" t="n">
-        <v>135.75</v>
+        <v>120.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S100A11</t>
+          <t>EEF1A1</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.930817610062893e-05</v>
+        <v>0.002103136684199149</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1622880116959064</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0125</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="E32" t="n">
-        <v>0.00484559541239188</v>
+        <v>0.005958290806461389</v>
       </c>
       <c r="F32" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G32" t="n">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="H32" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I32" t="n">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="J32" t="n">
-        <v>93.25</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FGFBP2</t>
+          <t>KIAA0125</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01058810769451864</v>
+        <v>0.002039271541694361</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1459056256572029</v>
+        <v>0.6270627062706271</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03125</v>
+        <v>0.4052631578947368</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003007222759486966</v>
+        <v>0.004776886373945863</v>
       </c>
       <c r="F33" t="n">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="G33" t="n">
-        <v>79.5</v>
+        <v>37</v>
       </c>
       <c r="H33" t="n">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="I33" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="J33" t="n">
-        <v>106.625</v>
+        <v>49.75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ARHGAP24</t>
+          <t>LINC00926</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0005639845835005187</v>
+        <v>0.001162901680920315</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1772110472541507</v>
+        <v>0.6109324758842444</v>
       </c>
       <c r="D34" t="n">
-        <v>0.04375</v>
+        <v>0.3631578947368421</v>
       </c>
       <c r="E34" t="n">
-        <v>0.004546061341600936</v>
+        <v>0.004751771885235642</v>
       </c>
       <c r="F34" t="n">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="G34" t="n">
-        <v>112.5</v>
+        <v>15</v>
       </c>
       <c r="H34" t="n">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="I34" t="n">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="J34" t="n">
-        <v>117.125</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GSN</t>
+          <t>RPS12</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.001657788895527418</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1182917732310315</v>
+        <v>0.6312292358803987</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0125</v>
+        <v>0.4157894736842105</v>
       </c>
       <c r="E35" t="n">
-        <v>0.003985945016747146</v>
+        <v>0.005326119674262793</v>
       </c>
       <c r="F35" t="n">
-        <v>61.5</v>
+        <v>54</v>
       </c>
       <c r="G35" t="n">
-        <v>62.5</v>
+        <v>48.5</v>
       </c>
       <c r="H35" t="n">
-        <v>76</v>
+        <v>48.5</v>
       </c>
       <c r="I35" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J35" t="n">
-        <v>75.75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36">
@@ -1649,881 +1649,881 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02445089029699607</v>
+        <v>0.003630714101237979</v>
       </c>
       <c r="C36" t="n">
-        <v>0.216806640625</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="D36" t="n">
-        <v>0.04375</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="E36" t="n">
-        <v>0.007660347811457435</v>
+        <v>0.005821857267350973</v>
       </c>
       <c r="F36" t="n">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="G36" t="n">
-        <v>174.5</v>
+        <v>148</v>
       </c>
       <c r="H36" t="n">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="I36" t="n">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="J36" t="n">
-        <v>163.125</v>
+        <v>148.75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GZMK</t>
+          <t>S100A6</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1123303034036601</v>
+        <v>0.004466510610663602</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2408962673611111</v>
+        <v>0.7196969696969697</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0625</v>
+        <v>0.6105263157894737</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0100886767786415</v>
+        <v>0.006213493424831438</v>
       </c>
       <c r="F37" t="n">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="G37" t="n">
-        <v>202</v>
+        <v>161.5</v>
       </c>
       <c r="H37" t="n">
         <v>161.5</v>
       </c>
       <c r="I37" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="J37" t="n">
-        <v>187.125</v>
+        <v>165.75</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PLD4</t>
+          <t>MALAT1</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01211593727422416</v>
+        <v>0.00165405893664058</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1344537306201551</v>
+        <v>0.6168831168831169</v>
       </c>
       <c r="D38" t="n">
-        <v>0.03125</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="E38" t="n">
-        <v>0.004552271018580385</v>
+        <v>0.004033418332365158</v>
       </c>
       <c r="F38" t="n">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="G38" t="n">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="H38" t="n">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="I38" t="n">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="J38" t="n">
-        <v>115.25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GZMA</t>
+          <t>RPS3</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1673091746361529</v>
+        <v>0.002531802469385793</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2267258986928105</v>
+        <v>0.6713780918727915</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08125</v>
+        <v>0.5105263157894737</v>
       </c>
       <c r="E39" t="n">
-        <v>0.009328461637006473</v>
+        <v>0.005635473096785158</v>
       </c>
       <c r="F39" t="n">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="G39" t="n">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="H39" t="n">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="I39" t="n">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="J39" t="n">
-        <v>187.75</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ASGR1</t>
+          <t>CD14</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.04644378177860133</v>
+        <v>0.001090474127898675</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2238004032258065</v>
+        <v>0.6354515050167224</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1625</v>
+        <v>0.4263157894736842</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01312767284560719</v>
+        <v>0.005293914935715644</v>
       </c>
       <c r="F40" t="n">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="G40" t="n">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="H40" t="n">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c r="I40" t="n">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="J40" t="n">
-        <v>194</v>
+        <v>55.25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MAFB</t>
+          <t>LGALS2</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.02050702666244222</v>
+        <v>0.001202129378648417</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2089702560240964</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="D41" t="n">
-        <v>0.13125</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01128242410336284</v>
+        <v>0.005210565217432375</v>
       </c>
       <c r="F41" t="n">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="G41" t="n">
-        <v>161</v>
+        <v>58.5</v>
       </c>
       <c r="H41" t="n">
-        <v>198</v>
+        <v>58.5</v>
       </c>
       <c r="I41" t="n">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="J41" t="n">
-        <v>180</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>LYAR</t>
+          <t>RPS18</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.002696844211670454</v>
+        <v>0.001534032357377868</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2121655198776758</v>
+        <v>0.6291390728476821</v>
       </c>
       <c r="D42" t="n">
-        <v>0.03125</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="E42" t="n">
-        <v>0.005548493618722774</v>
+        <v>0.005080481810591697</v>
       </c>
       <c r="F42" t="n">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="G42" t="n">
-        <v>168</v>
+        <v>43.5</v>
       </c>
       <c r="H42" t="n">
-        <v>119</v>
+        <v>43.5</v>
       </c>
       <c r="I42" t="n">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="J42" t="n">
-        <v>134.75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HLA-DPB1</t>
+          <t>CFD</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>0.001514305841489948</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1745361635220126</v>
+        <v>0.6397306397306397</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0125</v>
+        <v>0.4368421052631579</v>
       </c>
       <c r="E43" t="n">
-        <v>0.002883808637166163</v>
+        <v>0.005427359760583203</v>
       </c>
       <c r="F43" t="n">
-        <v>61.5</v>
+        <v>38</v>
       </c>
       <c r="G43" t="n">
-        <v>104.5</v>
+        <v>62.5</v>
       </c>
       <c r="H43" t="n">
-        <v>76</v>
+        <v>62.5</v>
       </c>
       <c r="I43" t="n">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="J43" t="n">
-        <v>81</v>
+        <v>69.75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HLA-DRB1</t>
+          <t>SPI1</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01162726007284209</v>
+        <v>0.0006937555103520277</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2118416030534351</v>
+        <v>0.6050955414012739</v>
       </c>
       <c r="D44" t="n">
-        <v>0.08125</v>
+        <v>0.3473684210526315</v>
       </c>
       <c r="E44" t="n">
-        <v>0.009360277461967157</v>
+        <v>0.00523969500656382</v>
       </c>
       <c r="F44" t="n">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>167</v>
+        <v>8</v>
       </c>
       <c r="H44" t="n">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="I44" t="n">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="J44" t="n">
-        <v>166.75</v>
+        <v>28.25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>LAT2</t>
+          <t>RPSA</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0307510118540207</v>
+        <v>0.002613639055344027</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2355793718166384</v>
+        <v>0.6643356643356644</v>
       </c>
       <c r="D45" t="n">
-        <v>0.03125</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="E45" t="n">
-        <v>0.006088746271688821</v>
+        <v>0.00541079756130048</v>
       </c>
       <c r="F45" t="n">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="G45" t="n">
-        <v>198</v>
+        <v>102.5</v>
       </c>
       <c r="H45" t="n">
-        <v>119</v>
+        <v>102.5</v>
       </c>
       <c r="I45" t="n">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="J45" t="n">
-        <v>158.5</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S100A12</t>
+          <t>BRI3</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2007069700532876</v>
+        <v>0.001541510144819521</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2477790178571429</v>
+        <v>0.6484641638225256</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1</v>
+        <v>0.4578947368421052</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01872320478404739</v>
+        <v>0.005318400033034456</v>
       </c>
       <c r="F46" t="n">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="G46" t="n">
-        <v>206</v>
+        <v>77.5</v>
       </c>
       <c r="H46" t="n">
-        <v>185.5</v>
+        <v>77.5</v>
       </c>
       <c r="I46" t="n">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="J46" t="n">
-        <v>200.125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PRSS23</t>
+          <t>RPL9</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.001295610145846875</v>
       </c>
       <c r="C47" t="n">
-        <v>0.144839509394572</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0125</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="E47" t="n">
-        <v>0.00180418297244044</v>
+        <v>0.004893404215074231</v>
       </c>
       <c r="F47" t="n">
-        <v>61.5</v>
+        <v>24</v>
       </c>
       <c r="G47" t="n">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="H47" t="n">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I47" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J47" t="n">
-        <v>69.625</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CA2</t>
+          <t>RPS14</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.08837674037654583</v>
+        <v>0.00189805030761572</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1804372561768531</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="D48" t="n">
-        <v>0.03750000000000001</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004490943593009977</v>
+        <v>0.005175737525134552</v>
       </c>
       <c r="F48" t="n">
-        <v>193</v>
+        <v>67</v>
       </c>
       <c r="G48" t="n">
-        <v>120.5</v>
+        <v>66</v>
       </c>
       <c r="H48" t="n">
-        <v>131.5</v>
+        <v>66</v>
       </c>
       <c r="I48" t="n">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="J48" t="n">
-        <v>140</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>IFI30</t>
+          <t>GZMK</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.08597297405904682</v>
+        <v>0.002515563854081946</v>
       </c>
       <c r="C49" t="n">
-        <v>0.206175705794948</v>
+        <v>0.6620209059233449</v>
       </c>
       <c r="D49" t="n">
-        <v>0.09375</v>
+        <v>0.4894736842105263</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01154599128267124</v>
+        <v>0.005066334837407225</v>
       </c>
       <c r="F49" t="n">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="G49" t="n">
-        <v>153</v>
+        <v>97.5</v>
       </c>
       <c r="H49" t="n">
-        <v>180.5</v>
+        <v>97.5</v>
       </c>
       <c r="I49" t="n">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="J49" t="n">
-        <v>179.625</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>FGL2</t>
+          <t>RPL18A</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.001691589040085938</v>
+        <v>0.001903644392255035</v>
       </c>
       <c r="C50" t="n">
-        <v>0.195431338028169</v>
+        <v>0.6484641638225256</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09375</v>
+        <v>0.4578947368421052</v>
       </c>
       <c r="E50" t="n">
-        <v>0.007591969663757482</v>
+        <v>0.005224017151902718</v>
       </c>
       <c r="F50" t="n">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="G50" t="n">
-        <v>138</v>
+        <v>77.5</v>
       </c>
       <c r="H50" t="n">
-        <v>180.5</v>
+        <v>77.5</v>
       </c>
       <c r="I50" t="n">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="J50" t="n">
-        <v>147.625</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>IGSF6</t>
+          <t>RPS13</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.03896427818262523</v>
+        <v>0.002750419265641426</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2216553514376997</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D51" t="n">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01289081575387267</v>
+        <v>0.005433551094870264</v>
       </c>
       <c r="F51" t="n">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="G51" t="n">
-        <v>182.5</v>
+        <v>107</v>
       </c>
       <c r="H51" t="n">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="I51" t="n">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="J51" t="n">
-        <v>190.125</v>
+        <v>111.75</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>FPR1</t>
+          <t>CDA</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01284007819617568</v>
+        <v>0.0009245505376886393</v>
       </c>
       <c r="C52" t="n">
-        <v>0.208656015037594</v>
+        <v>0.6270627062706271</v>
       </c>
       <c r="D52" t="n">
-        <v>0.125</v>
+        <v>0.4052631578947368</v>
       </c>
       <c r="E52" t="n">
-        <v>0.01003061019732896</v>
+        <v>0.005426354425947469</v>
       </c>
       <c r="F52" t="n">
-        <v>155</v>
+        <v>7</v>
       </c>
       <c r="G52" t="n">
-        <v>159.5</v>
+        <v>37</v>
       </c>
       <c r="H52" t="n">
-        <v>195.5</v>
+        <v>37</v>
       </c>
       <c r="I52" t="n">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="J52" t="n">
-        <v>173.5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>C5AR1</t>
+          <t>HLA-DPB1</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.006292102181598275</v>
+        <v>0.005465071579817955</v>
       </c>
       <c r="C53" t="n">
-        <v>0.216806640625</v>
+        <v>0.7661290322580645</v>
       </c>
       <c r="D53" t="n">
-        <v>0.125</v>
+        <v>0.6947368421052631</v>
       </c>
       <c r="E53" t="n">
-        <v>0.01105221022424648</v>
+        <v>0.00683598416299406</v>
       </c>
       <c r="F53" t="n">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="G53" t="n">
-        <v>174.5</v>
+        <v>189.5</v>
       </c>
       <c r="H53" t="n">
-        <v>195.5</v>
+        <v>189.5</v>
       </c>
       <c r="I53" t="n">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J53" t="n">
-        <v>172.25</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>FCER1G</t>
+          <t>RPL31</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.009054093704968659</v>
+        <v>0.001946760683380484</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2230807877813505</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="D54" t="n">
-        <v>0.08125</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="E54" t="n">
-        <v>0.006375346463106436</v>
+        <v>0.004676771930937541</v>
       </c>
       <c r="F54" t="n">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="G54" t="n">
-        <v>186</v>
+        <v>58.5</v>
       </c>
       <c r="H54" t="n">
-        <v>173</v>
+        <v>58.5</v>
       </c>
       <c r="I54" t="n">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="J54" t="n">
-        <v>162.5</v>
+        <v>56.75</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CDA</t>
+          <t>FCER1G</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.00581687350926317</v>
+        <v>0.0008220820321209253</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2049575332348597</v>
+        <v>0.6291390728476821</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1375</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="E55" t="n">
-        <v>0.01104143832691849</v>
+        <v>0.005012895789572111</v>
       </c>
       <c r="F55" t="n">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="G55" t="n">
-        <v>151</v>
+        <v>43.5</v>
       </c>
       <c r="H55" t="n">
-        <v>199.5</v>
+        <v>43.5</v>
       </c>
       <c r="I55" t="n">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c r="J55" t="n">
-        <v>166.375</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TCL1A</t>
+          <t>HLA-DMA</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1054575757434653</v>
+        <v>0.00216327732814278</v>
       </c>
       <c r="C56" t="n">
-        <v>0.20803035982009</v>
+        <v>0.6620209059233449</v>
       </c>
       <c r="D56" t="n">
-        <v>0.15</v>
+        <v>0.4894736842105263</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01425503158046005</v>
+        <v>0.005452483803423634</v>
       </c>
       <c r="F56" t="n">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="G56" t="n">
-        <v>156</v>
+        <v>97.5</v>
       </c>
       <c r="H56" t="n">
-        <v>202</v>
+        <v>97.5</v>
       </c>
       <c r="I56" t="n">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="J56" t="n">
-        <v>188.75</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>LINC00926</t>
+          <t>RPL10A</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.05930042774399422</v>
+        <v>0.003121558468515096</v>
       </c>
       <c r="C57" t="n">
-        <v>0.206175705794948</v>
+        <v>0.6690140845070423</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1125</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="E57" t="n">
-        <v>0.00928504018138428</v>
+        <v>0.005490630919869004</v>
       </c>
       <c r="F57" t="n">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="G57" t="n">
-        <v>153</v>
+        <v>110.5</v>
       </c>
       <c r="H57" t="n">
-        <v>191</v>
+        <v>110.5</v>
       </c>
       <c r="I57" t="n">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="J57" t="n">
-        <v>177.5</v>
+        <v>118.25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CLIC3</t>
+          <t>RPL13A</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01547715406595692</v>
+        <v>0.002281319787124656</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1785794723294723</v>
+        <v>0.657439446366782</v>
       </c>
       <c r="D58" t="n">
-        <v>0.05</v>
+        <v>0.4789473684210526</v>
       </c>
       <c r="E58" t="n">
-        <v>0.004377919715425452</v>
+        <v>0.005611367745179104</v>
       </c>
       <c r="F58" t="n">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="G58" t="n">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="H58" t="n">
-        <v>149.5</v>
+        <v>90</v>
       </c>
       <c r="I58" t="n">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="J58" t="n">
-        <v>134.125</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LGALS3</t>
+          <t>CTSW</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01969065962951022</v>
+        <v>0.005345459493179711</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2067902384500745</v>
+        <v>0.7661290322580645</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1</v>
+        <v>0.6947368421052631</v>
       </c>
       <c r="E59" t="n">
-        <v>0.008485420142797023</v>
+        <v>0.006680858566075944</v>
       </c>
       <c r="F59" t="n">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="G59" t="n">
-        <v>155</v>
+        <v>189.5</v>
       </c>
       <c r="H59" t="n">
-        <v>185.5</v>
+        <v>189.5</v>
       </c>
       <c r="I59" t="n">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="J59" t="n">
-        <v>170.125</v>
+        <v>186.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CST3</t>
+          <t>PRF1</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.009548796768073823</v>
+        <v>0.002547501149147285</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2154600155279503</v>
+        <v>0.6597222222222222</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08125</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="E60" t="n">
-        <v>0.005907653014390651</v>
+        <v>0.004997292346210578</v>
       </c>
       <c r="F60" t="n">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="G60" t="n">
-        <v>173</v>
+        <v>93.5</v>
       </c>
       <c r="H60" t="n">
-        <v>173</v>
+        <v>93.5</v>
       </c>
       <c r="I60" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="J60" t="n">
-        <v>156.75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HLA-DMA</t>
+          <t>RPS25</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01820935779721667</v>
+        <v>0.001918365094967222</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2141300154320988</v>
+        <v>0.6529209621993127</v>
       </c>
       <c r="D61" t="n">
-        <v>0.09375</v>
+        <v>0.468421052631579</v>
       </c>
       <c r="E61" t="n">
-        <v>0.007447616864476847</v>
+        <v>0.005128200260170176</v>
       </c>
       <c r="F61" t="n">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="G61" t="n">
-        <v>169.5</v>
+        <v>84</v>
       </c>
       <c r="H61" t="n">
-        <v>180.5</v>
+        <v>84</v>
       </c>
       <c r="I61" t="n">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="J61" t="n">
-        <v>169.25</v>
+        <v>80.25</v>
       </c>
     </row>
     <row r="62">
@@ -2533,3431 +2533,4451 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.006349084711644018</v>
+        <v>0.001244800543513446</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1937936452513966</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="E62" t="n">
-        <v>0.008731357665576474</v>
+        <v>0.005051051829908887</v>
       </c>
       <c r="F62" t="n">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="G62" t="n">
-        <v>135</v>
+        <v>51.5</v>
       </c>
       <c r="H62" t="n">
-        <v>185.5</v>
+        <v>51.5</v>
       </c>
       <c r="I62" t="n">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="J62" t="n">
-        <v>156.625</v>
+        <v>49.75</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>LST1</t>
+          <t>SERPINA1</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01948197676778353</v>
+        <v>0.002029052882441175</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2216553514376997</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="D63" t="n">
-        <v>0.15</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="E63" t="n">
-        <v>0.01144625593002979</v>
+        <v>0.00560248685700806</v>
       </c>
       <c r="F63" t="n">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="G63" t="n">
-        <v>182.5</v>
+        <v>86.5</v>
       </c>
       <c r="H63" t="n">
-        <v>202</v>
+        <v>86.5</v>
       </c>
       <c r="I63" t="n">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="J63" t="n">
-        <v>185.625</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TYROBP</t>
+          <t>GZMA</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.06306641753017551</v>
+        <v>0.004060606454123664</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2335963804713805</v>
+        <v>0.7196969696969697</v>
       </c>
       <c r="D64" t="n">
-        <v>0.18125</v>
+        <v>0.6105263157894737</v>
       </c>
       <c r="E64" t="n">
-        <v>0.01601442353955212</v>
+        <v>0.006024128420365063</v>
       </c>
       <c r="F64" t="n">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="G64" t="n">
-        <v>195.5</v>
+        <v>161.5</v>
       </c>
       <c r="H64" t="n">
-        <v>207</v>
+        <v>161.5</v>
       </c>
       <c r="I64" t="n">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="J64" t="n">
-        <v>198.125</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PLEKHF1</t>
+          <t>CD72</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>0.001116929947433409</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1617205710955711</v>
+        <v>0.6050955414012739</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0125</v>
+        <v>0.3473684210526315</v>
       </c>
       <c r="E65" t="n">
-        <v>0.001771820526136249</v>
+        <v>0.004170817850933158</v>
       </c>
       <c r="F65" t="n">
-        <v>61.5</v>
+        <v>14</v>
       </c>
       <c r="G65" t="n">
-        <v>89.5</v>
+        <v>8</v>
       </c>
       <c r="H65" t="n">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="I65" t="n">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="J65" t="n">
-        <v>72.25</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>RAMP1</t>
+          <t>TCL1A</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.02130451179782731</v>
+        <v>0.001730809324888887</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1459056256572029</v>
+        <v>0.6291390728476821</v>
       </c>
       <c r="D66" t="n">
-        <v>0.025</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="E66" t="n">
-        <v>0.002037964242574128</v>
+        <v>0.005187062006010335</v>
       </c>
       <c r="F66" t="n">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="G66" t="n">
-        <v>79.5</v>
+        <v>43.5</v>
       </c>
       <c r="H66" t="n">
-        <v>104.5</v>
+        <v>43.5</v>
       </c>
       <c r="I66" t="n">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="J66" t="n">
-        <v>105.5</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>GZMB</t>
+          <t>RPL5</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.006549490263204879</v>
+        <v>0.002252494500469062</v>
       </c>
       <c r="C67" t="n">
-        <v>0.179969195849546</v>
+        <v>0.6597222222222222</v>
       </c>
       <c r="D67" t="n">
-        <v>0.06875000000000001</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="E67" t="n">
-        <v>0.005073990201391719</v>
+        <v>0.00523332141446076</v>
       </c>
       <c r="F67" t="n">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="G67" t="n">
-        <v>119</v>
+        <v>93.5</v>
       </c>
       <c r="H67" t="n">
-        <v>165</v>
+        <v>93.5</v>
       </c>
       <c r="I67" t="n">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="J67" t="n">
-        <v>137</v>
+        <v>92.75</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>IFITM3</t>
+          <t>IL7R</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.04709735789005933</v>
+        <v>0.003354654334269566</v>
       </c>
       <c r="C68" t="n">
-        <v>0.200225468975469</v>
+        <v>0.6985294117647058</v>
       </c>
       <c r="D68" t="n">
-        <v>0.125</v>
+        <v>0.5684210526315789</v>
       </c>
       <c r="E68" t="n">
-        <v>0.01074050106439687</v>
+        <v>0.00539723647012543</v>
       </c>
       <c r="F68" t="n">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="G68" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H68" t="n">
-        <v>195.5</v>
+        <v>145</v>
       </c>
       <c r="I68" t="n">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="J68" t="n">
-        <v>178.875</v>
+        <v>134.5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>NCF2</t>
+          <t>TYROBP</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.007174213509827769</v>
+        <v>0.00306595417513696</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2083427177177177</v>
+        <v>0.6859205776173285</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1375</v>
+        <v>0.5421052631578948</v>
       </c>
       <c r="E69" t="n">
-        <v>0.01006105146420301</v>
+        <v>0.00630621242422889</v>
       </c>
       <c r="F69" t="n">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G69" t="n">
-        <v>157.5</v>
+        <v>131.5</v>
       </c>
       <c r="H69" t="n">
-        <v>199.5</v>
+        <v>131.5</v>
       </c>
       <c r="I69" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="J69" t="n">
-        <v>169</v>
+        <v>140.25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>KLRC1</t>
+          <t>RPLP2</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1392426821347785</v>
+        <v>0.002245384398186723</v>
       </c>
       <c r="C70" t="n">
-        <v>0.2421575043630018</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0625</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="E70" t="n">
-        <v>0.007132502894856098</v>
+        <v>0.00528916359094176</v>
       </c>
       <c r="F70" t="n">
-        <v>202</v>
+        <v>88</v>
       </c>
       <c r="G70" t="n">
-        <v>203.5</v>
+        <v>86.5</v>
       </c>
       <c r="H70" t="n">
-        <v>161.5</v>
+        <v>86.5</v>
       </c>
       <c r="I70" t="n">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="J70" t="n">
-        <v>182</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ENHO</t>
+          <t>RPLP0</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.04094439889178025</v>
+        <v>0.00313584845485283</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1745361635220126</v>
+        <v>0.6620209059233449</v>
       </c>
       <c r="D71" t="n">
-        <v>0.025</v>
+        <v>0.4894736842105263</v>
       </c>
       <c r="E71" t="n">
-        <v>0.002947007009489422</v>
+        <v>0.004862927573711827</v>
       </c>
       <c r="F71" t="n">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="G71" t="n">
-        <v>104.5</v>
+        <v>97.5</v>
       </c>
       <c r="H71" t="n">
-        <v>104.5</v>
+        <v>97.5</v>
       </c>
       <c r="I71" t="n">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="J71" t="n">
-        <v>118.75</v>
+        <v>95.75</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BLVRA</t>
+          <t>RPL11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.0117026055705301</v>
+        <v>0.002167564140075233</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1885275135869565</v>
+        <v>0.657439446366782</v>
       </c>
       <c r="D72" t="n">
-        <v>0.04375</v>
+        <v>0.4789473684210526</v>
       </c>
       <c r="E72" t="n">
-        <v>0.005009846193290812</v>
+        <v>0.004894341310410531</v>
       </c>
       <c r="F72" t="n">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="G72" t="n">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="H72" t="n">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="I72" t="n">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="J72" t="n">
-        <v>136.5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HLA-DPA1</t>
+          <t>RPS28</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.002875115459097009</v>
+        <v>0.0020414245919932</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1892991132332879</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="D73" t="n">
-        <v>0.05</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="E73" t="n">
-        <v>0.005063439565648784</v>
+        <v>0.004798969334910911</v>
       </c>
       <c r="F73" t="n">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="G73" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="H73" t="n">
-        <v>149.5</v>
+        <v>70</v>
       </c>
       <c r="I73" t="n">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="J73" t="n">
-        <v>131.875</v>
+        <v>66.75</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>GRN</t>
+          <t>CD74</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.00597723022935275</v>
+        <v>0.003793146535136232</v>
       </c>
       <c r="C74" t="n">
-        <v>0.206175705794948</v>
+        <v>0.6985294117647058</v>
       </c>
       <c r="D74" t="n">
-        <v>0.125</v>
+        <v>0.5684210526315789</v>
       </c>
       <c r="E74" t="n">
-        <v>0.008522492228274059</v>
+        <v>0.005602161456201798</v>
       </c>
       <c r="F74" t="n">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="G74" t="n">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H74" t="n">
-        <v>195.5</v>
+        <v>145</v>
       </c>
       <c r="I74" t="n">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="J74" t="n">
-        <v>162.625</v>
+        <v>143.5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>P2RX5</t>
+          <t>RPL35A</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>0.002640185775967958</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1804372561768531</v>
+        <v>0.6643356643356644</v>
       </c>
       <c r="D75" t="n">
-        <v>0.025</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002940576297506357</v>
+        <v>0.005121888324147831</v>
       </c>
       <c r="F75" t="n">
-        <v>61.5</v>
+        <v>113</v>
       </c>
       <c r="G75" t="n">
-        <v>120.5</v>
+        <v>102.5</v>
       </c>
       <c r="H75" t="n">
-        <v>104.5</v>
+        <v>102.5</v>
       </c>
       <c r="I75" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J75" t="n">
-        <v>92.625</v>
+        <v>100.25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ALDH2</t>
+          <t>HLA-DQB1</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.001014989192577598</v>
+        <v>0.001369472981996172</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1913879310344828</v>
+        <v>0.6168831168831169</v>
       </c>
       <c r="D76" t="n">
-        <v>0.08125</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="E76" t="n">
-        <v>0.00614387172821696</v>
+        <v>0.004168159548038106</v>
       </c>
       <c r="F76" t="n">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="G76" t="n">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="H76" t="n">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="I76" t="n">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="J76" t="n">
-        <v>137.5</v>
+        <v>22.25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>IL1B</t>
+          <t>LST1</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.0001647697933351894</v>
+        <v>0.002344296217405098</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2096015861027191</v>
+        <v>0.6737588652482269</v>
       </c>
       <c r="D77" t="n">
-        <v>0.05</v>
+        <v>0.5157894736842105</v>
       </c>
       <c r="E77" t="n">
-        <v>0.004658602404134514</v>
+        <v>0.005650746621346492</v>
       </c>
       <c r="F77" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G77" t="n">
-        <v>162</v>
+        <v>119.5</v>
       </c>
       <c r="H77" t="n">
-        <v>149.5</v>
+        <v>119.5</v>
       </c>
       <c r="I77" t="n">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="J77" t="n">
-        <v>131.125</v>
+        <v>118.5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CCL4</t>
+          <t>HLA-DPA1</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01613934172130914</v>
+        <v>0.004195581435284259</v>
       </c>
       <c r="C78" t="n">
-        <v>0.20080499276411</v>
+        <v>0.7364341085271318</v>
       </c>
       <c r="D78" t="n">
-        <v>0.05</v>
+        <v>0.6421052631578947</v>
       </c>
       <c r="E78" t="n">
-        <v>0.004756204764757103</v>
+        <v>0.006579293918996797</v>
       </c>
       <c r="F78" t="n">
         <v>161</v>
       </c>
       <c r="G78" t="n">
-        <v>149</v>
+        <v>175.5</v>
       </c>
       <c r="H78" t="n">
-        <v>149.5</v>
+        <v>175.5</v>
       </c>
       <c r="I78" t="n">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="J78" t="n">
-        <v>145.125</v>
+        <v>173.5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>S1PR5</t>
+          <t>S100A9</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01461679173328015</v>
+        <v>0.002797697876741407</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1870030323450135</v>
+        <v>0.6859205776173285</v>
       </c>
       <c r="D79" t="n">
-        <v>0.09375</v>
+        <v>0.5421052631578948</v>
       </c>
       <c r="E79" t="n">
-        <v>0.008394903947671131</v>
+        <v>0.005817031558491832</v>
       </c>
       <c r="F79" t="n">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="G79" t="n">
-        <v>124.5</v>
+        <v>131.5</v>
       </c>
       <c r="H79" t="n">
-        <v>180.5</v>
+        <v>131.5</v>
       </c>
       <c r="I79" t="n">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="J79" t="n">
-        <v>158.75</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HLA-DMB</t>
+          <t>RPL30</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1077874944971887</v>
+        <v>0.00233901795920324</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2404787694974004</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="D80" t="n">
-        <v>0.08750000000000001</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="E80" t="n">
-        <v>0.006397323327236525</v>
+        <v>0.004384577995131336</v>
       </c>
       <c r="F80" t="n">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="G80" t="n">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="H80" t="n">
-        <v>176.5</v>
+        <v>70</v>
       </c>
       <c r="I80" t="n">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="J80" t="n">
-        <v>182.375</v>
+        <v>65.75</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PLBD1</t>
+          <t>FCN1</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.003922427980963339</v>
+        <v>0.002171235517683423</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2147929566563468</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D81" t="n">
-        <v>0.11875</v>
+        <v>0.5</v>
       </c>
       <c r="E81" t="n">
-        <v>0.008372062702619823</v>
+        <v>0.005408848325566983</v>
       </c>
       <c r="F81" t="n">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="G81" t="n">
-        <v>171.5</v>
+        <v>107</v>
       </c>
       <c r="H81" t="n">
-        <v>192.5</v>
+        <v>107</v>
       </c>
       <c r="I81" t="n">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="J81" t="n">
-        <v>164</v>
+        <v>102.75</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>FCGR3A</t>
+          <t>CD247</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.02041975770952715</v>
+        <v>0.004911596052508954</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1973773115220484</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="D82" t="n">
-        <v>0.09375</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="E82" t="n">
-        <v>0.006402688120133621</v>
+        <v>0.005911653889077629</v>
       </c>
       <c r="F82" t="n">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="G82" t="n">
-        <v>144</v>
+        <v>171.5</v>
       </c>
       <c r="H82" t="n">
-        <v>180.5</v>
+        <v>171.5</v>
       </c>
       <c r="I82" t="n">
         <v>156</v>
       </c>
       <c r="J82" t="n">
-        <v>162.125</v>
+        <v>169.25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>FCGR2B</t>
+          <t>CD68</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.01772261043094771</v>
+        <v>0.00121901752693406</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2351800847457627</v>
+        <v>0.6312292358803987</v>
       </c>
       <c r="D83" t="n">
-        <v>0.025</v>
+        <v>0.4157894736842105</v>
       </c>
       <c r="E83" t="n">
-        <v>0.004494536920399664</v>
+        <v>0.005054859693703646</v>
       </c>
       <c r="F83" t="n">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="G83" t="n">
-        <v>197</v>
+        <v>48.5</v>
       </c>
       <c r="H83" t="n">
-        <v>104.5</v>
+        <v>48.5</v>
       </c>
       <c r="I83" t="n">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="J83" t="n">
-        <v>144.875</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>S100A8</t>
+          <t>CST3</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.2456844940737165</v>
+        <v>0.001196625357132293</v>
       </c>
       <c r="C84" t="n">
-        <v>0.251370018115942</v>
+        <v>0.6397306397306397</v>
       </c>
       <c r="D84" t="n">
-        <v>0.06875000000000001</v>
+        <v>0.4368421052631579</v>
       </c>
       <c r="E84" t="n">
-        <v>0.009341147695718241</v>
+        <v>0.004817272801363573</v>
       </c>
       <c r="F84" t="n">
-        <v>207</v>
+        <v>17</v>
       </c>
       <c r="G84" t="n">
-        <v>207</v>
+        <v>62.5</v>
       </c>
       <c r="H84" t="n">
-        <v>165</v>
+        <v>62.5</v>
       </c>
       <c r="I84" t="n">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="J84" t="n">
-        <v>190</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>PTGS1</t>
+          <t>TYMP</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.005349413831300118</v>
+        <v>0.002103826672481854</v>
       </c>
       <c r="C85" t="n">
-        <v>0.2192041864139021</v>
+        <v>0.6690140845070423</v>
       </c>
       <c r="D85" t="n">
-        <v>0.04375</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="E85" t="n">
-        <v>0.00424295945817708</v>
+        <v>0.005740696633547257</v>
       </c>
       <c r="F85" t="n">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="G85" t="n">
-        <v>178</v>
+        <v>110.5</v>
       </c>
       <c r="H85" t="n">
-        <v>141</v>
+        <v>110.5</v>
       </c>
       <c r="I85" t="n">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="J85" t="n">
-        <v>138</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SMCO4</t>
+          <t>CYB561A3</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.09564652969083036</v>
+        <v>0.003204420531074626</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2335963804713805</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D86" t="n">
-        <v>0.11875</v>
+        <v>0.5</v>
       </c>
       <c r="E86" t="n">
-        <v>0.009869631681041241</v>
+        <v>0.004972424267914551</v>
       </c>
       <c r="F86" t="n">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="G86" t="n">
-        <v>195.5</v>
+        <v>107</v>
       </c>
       <c r="H86" t="n">
-        <v>192.5</v>
+        <v>107</v>
       </c>
       <c r="I86" t="n">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c r="J86" t="n">
-        <v>191.5</v>
+        <v>103.25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>C5orf56</t>
+          <t>RPS11</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.01364932588054787</v>
+        <v>0.003440114040763069</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1756408227848101</v>
+        <v>0.6737588652482269</v>
       </c>
       <c r="D87" t="n">
-        <v>0.025</v>
+        <v>0.5157894736842105</v>
       </c>
       <c r="E87" t="n">
-        <v>0.004267727379692211</v>
+        <v>0.004659144969782886</v>
       </c>
       <c r="F87" t="n">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="G87" t="n">
-        <v>108</v>
+        <v>119.5</v>
       </c>
       <c r="H87" t="n">
-        <v>104.5</v>
+        <v>119.5</v>
       </c>
       <c r="I87" t="n">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="J87" t="n">
-        <v>119.625</v>
+        <v>104.25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TPM4</t>
+          <t>RPS20</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>0.002120083666973104</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1479277718550107</v>
+        <v>0.6484641638225256</v>
       </c>
       <c r="D88" t="n">
-        <v>0.00625</v>
+        <v>0.4578947368421052</v>
       </c>
       <c r="E88" t="n">
-        <v>0.00245335091145207</v>
+        <v>0.004630811750715428</v>
       </c>
       <c r="F88" t="n">
-        <v>61.5</v>
+        <v>80</v>
       </c>
       <c r="G88" t="n">
-        <v>81</v>
+        <v>77.5</v>
       </c>
       <c r="H88" t="n">
-        <v>56</v>
+        <v>77.5</v>
       </c>
       <c r="I88" t="n">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J88" t="n">
-        <v>69.125</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>XCL1</t>
+          <t>CFP</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0001310272536687631</v>
+        <v>0.001366548161863618</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1129936889250814</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="D89" t="n">
-        <v>0.025</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002406889090482862</v>
+        <v>0.004988341373414009</v>
       </c>
       <c r="F89" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="G89" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H89" t="n">
-        <v>104.5</v>
+        <v>66</v>
       </c>
       <c r="I89" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J89" t="n">
-        <v>82.875</v>
+        <v>57.25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CCL3</t>
+          <t>CEBPD</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.1462962068381572</v>
+        <v>0.001804131980406003</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2473373440285205</v>
+        <v>0.6620209059233449</v>
       </c>
       <c r="D90" t="n">
-        <v>0.04375</v>
+        <v>0.4894736842105263</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0049819188557713</v>
+        <v>0.005666434665020825</v>
       </c>
       <c r="F90" t="n">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="G90" t="n">
-        <v>205</v>
+        <v>97.5</v>
       </c>
       <c r="H90" t="n">
-        <v>141</v>
+        <v>97.5</v>
       </c>
       <c r="I90" t="n">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="J90" t="n">
-        <v>169.5</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MS4A6A</t>
+          <t>NCF2</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.07533613068173282</v>
+        <v>0.000920061924812547</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2363820272572402</v>
+        <v>0.6291390728476821</v>
       </c>
       <c r="D91" t="n">
-        <v>0.08750000000000001</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="E91" t="n">
-        <v>0.007994231129018273</v>
+        <v>0.004931658706526616</v>
       </c>
       <c r="F91" t="n">
-        <v>189</v>
+        <v>6</v>
       </c>
       <c r="G91" t="n">
-        <v>199</v>
+        <v>43.5</v>
       </c>
       <c r="H91" t="n">
-        <v>176.5</v>
+        <v>43.5</v>
       </c>
       <c r="I91" t="n">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="J91" t="n">
-        <v>183.375</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HAVCR2</t>
+          <t>MS4A6A</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.00365009501040459</v>
+        <v>0.001570681691801358</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2141300154320988</v>
+        <v>0.6462585034013606</v>
       </c>
       <c r="D92" t="n">
-        <v>0.07500000000000001</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="E92" t="n">
-        <v>0.005997486514455182</v>
+        <v>0.005242624976921352</v>
       </c>
       <c r="F92" t="n">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="G92" t="n">
-        <v>169.5</v>
+        <v>74</v>
       </c>
       <c r="H92" t="n">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="I92" t="n">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="J92" t="n">
-        <v>149.875</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CD79A</t>
+          <t>GRN</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.001396842879987742</v>
+        <v>0.0013947202699245</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1754187737041719</v>
+        <v>0.6462585034013606</v>
       </c>
       <c r="D93" t="n">
-        <v>0.04375</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003770467604913561</v>
+        <v>0.005175938093046999</v>
       </c>
       <c r="F93" t="n">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="G93" t="n">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="H93" t="n">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="I93" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="J93" t="n">
-        <v>113</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>NCR3</t>
+          <t>GPX1</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.0001198681755875152</v>
+        <v>0.003100981946389155</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2181702044025157</v>
+        <v>0.6959706959706959</v>
       </c>
       <c r="D94" t="n">
-        <v>0.025</v>
+        <v>0.5631578947368421</v>
       </c>
       <c r="E94" t="n">
-        <v>0.00359901803731438</v>
+        <v>0.005593858578113621</v>
       </c>
       <c r="F94" t="n">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="G94" t="n">
-        <v>176.5</v>
+        <v>143</v>
       </c>
       <c r="H94" t="n">
-        <v>104.5</v>
+        <v>143</v>
       </c>
       <c r="I94" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="J94" t="n">
-        <v>116.75</v>
+        <v>135.5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>FOLR3</t>
+          <t>CHST12</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.01165487421383648</v>
+        <v>0.005656986451520897</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2202480158730159</v>
+        <v>0.7421875</v>
       </c>
       <c r="D95" t="n">
-        <v>0.03125</v>
+        <v>0.6526315789473685</v>
       </c>
       <c r="E95" t="n">
-        <v>0.00558836321404925</v>
+        <v>0.006628284459415737</v>
       </c>
       <c r="F95" t="n">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H95" t="n">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="I95" t="n">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="J95" t="n">
-        <v>146.5</v>
+        <v>181.75</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>IRF8</t>
+          <t>CD40</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.007491107112352353</v>
+        <v>0.001679873873645586</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2238004032258065</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D96" t="n">
-        <v>0.03750000000000001</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="E96" t="n">
-        <v>0.004113939212816245</v>
+        <v>0.004896584298722363</v>
       </c>
       <c r="F96" t="n">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="G96" t="n">
-        <v>190</v>
+        <v>51.5</v>
       </c>
       <c r="H96" t="n">
-        <v>131.5</v>
+        <v>51.5</v>
       </c>
       <c r="I96" t="n">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="J96" t="n">
-        <v>140.375</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>TNFSF13B</t>
+          <t>HLA-DRA</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.02480259357288043</v>
+        <v>0.004289298931834472</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2308756239600666</v>
+        <v>0.7224334600760456</v>
       </c>
       <c r="D97" t="n">
-        <v>0.15625</v>
+        <v>0.6157894736842106</v>
       </c>
       <c r="E97" t="n">
-        <v>0.01166860188506285</v>
+        <v>0.006208554865646049</v>
       </c>
       <c r="F97" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G97" t="n">
-        <v>194</v>
+        <v>164.5</v>
       </c>
       <c r="H97" t="n">
-        <v>204</v>
+        <v>164.5</v>
       </c>
       <c r="I97" t="n">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="J97" t="n">
-        <v>191.25</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SRGN</t>
+          <t>RPS10</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.000812583832288999</v>
+        <v>0.003484352796222653</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1698362913096695</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0125</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="E98" t="n">
-        <v>0.002270764362949103</v>
+        <v>0.00580264713750073</v>
       </c>
       <c r="F98" t="n">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="G98" t="n">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="H98" t="n">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="I98" t="n">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="J98" t="n">
-        <v>86.75</v>
+        <v>146.25</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TYMP</t>
+          <t>P2RX5</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.03097265056122711</v>
+        <v>0.001222053203572404</v>
       </c>
       <c r="C99" t="n">
-        <v>0.2111967275494673</v>
+        <v>0.5974842767295597</v>
       </c>
       <c r="D99" t="n">
-        <v>0.16875</v>
+        <v>0.3263157894736842</v>
       </c>
       <c r="E99" t="n">
-        <v>0.01344503700915845</v>
+        <v>0.003556323079898788</v>
       </c>
       <c r="F99" t="n">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="G99" t="n">
-        <v>166</v>
+        <v>4</v>
       </c>
       <c r="H99" t="n">
-        <v>206</v>
+        <v>4</v>
       </c>
       <c r="I99" t="n">
-        <v>198</v>
+        <v>3</v>
       </c>
       <c r="J99" t="n">
-        <v>186.5</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>KLRB1</t>
+          <t>IRF8</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.005287328169994803</v>
+        <v>0.001610107880334275</v>
       </c>
       <c r="C100" t="n">
-        <v>0.219898969889065</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="D100" t="n">
-        <v>0.03125</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="E100" t="n">
-        <v>0.004390950235578846</v>
+        <v>0.004730291027040392</v>
       </c>
       <c r="F100" t="n">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="G100" t="n">
-        <v>180</v>
+        <v>58.5</v>
       </c>
       <c r="H100" t="n">
-        <v>119</v>
+        <v>58.5</v>
       </c>
       <c r="I100" t="n">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="J100" t="n">
-        <v>133.75</v>
+        <v>52.25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SNCA</t>
+          <t>RPL27A</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>0.002476842462195845</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1870030323450135</v>
+        <v>0.6506849315068494</v>
       </c>
       <c r="D101" t="n">
-        <v>0.00625</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="E101" t="n">
-        <v>0.001555664184795167</v>
+        <v>0.004775786508368166</v>
       </c>
       <c r="F101" t="n">
-        <v>61.5</v>
+        <v>102</v>
       </c>
       <c r="G101" t="n">
-        <v>124.5</v>
+        <v>81.5</v>
       </c>
       <c r="H101" t="n">
-        <v>56</v>
+        <v>81.5</v>
       </c>
       <c r="I101" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="J101" t="n">
-        <v>74.75</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>GNLY</t>
+          <t>RPS29</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.001382990689543191</v>
+        <v>0.002244576669854631</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1758634347275032</v>
+        <v>0.657439446366782</v>
       </c>
       <c r="D102" t="n">
-        <v>0.05</v>
+        <v>0.4789473684210526</v>
       </c>
       <c r="E102" t="n">
-        <v>0.004455952043028562</v>
+        <v>0.004813236507342193</v>
       </c>
       <c r="F102" t="n">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="G102" t="n">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="H102" t="n">
-        <v>149.5</v>
+        <v>90</v>
       </c>
       <c r="I102" t="n">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="J102" t="n">
-        <v>119.375</v>
+        <v>80</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SPON2</t>
+          <t>MARCH1</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.003168637222907812</v>
+        <v>0.001621294872874645</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1957069816643159</v>
+        <v>0.6168831168831169</v>
       </c>
       <c r="D103" t="n">
-        <v>0.03125</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="E103" t="n">
-        <v>0.003901866935684676</v>
+        <v>0.004008015182014303</v>
       </c>
       <c r="F103" t="n">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="G103" t="n">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="H103" t="n">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="I103" t="n">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="J103" t="n">
-        <v>119.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>FCGRT</t>
+          <t>S100A8</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.01526056970536468</v>
+        <v>0.002735663214279357</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2181702044025157</v>
+        <v>0.6761565836298933</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1</v>
+        <v>0.5210526315789473</v>
       </c>
       <c r="E104" t="n">
-        <v>0.006706405068961161</v>
+        <v>0.005599001906757686</v>
       </c>
       <c r="F104" t="n">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="G104" t="n">
-        <v>176.5</v>
+        <v>124</v>
       </c>
       <c r="H104" t="n">
-        <v>185.5</v>
+        <v>124</v>
       </c>
       <c r="I104" t="n">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="J104" t="n">
-        <v>170</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>HLA-DQB1</t>
+          <t>CD79A</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.01164645103324348</v>
+        <v>0.00321082861481646</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1763103557814485</v>
+        <v>0.6934306569343066</v>
       </c>
       <c r="D105" t="n">
-        <v>0.025</v>
+        <v>0.5578947368421052</v>
       </c>
       <c r="E105" t="n">
-        <v>0.003563817374213065</v>
+        <v>0.005863779017836118</v>
       </c>
       <c r="F105" t="n">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G105" t="n">
-        <v>111</v>
+        <v>141.5</v>
       </c>
       <c r="H105" t="n">
-        <v>104.5</v>
+        <v>141.5</v>
       </c>
       <c r="I105" t="n">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="J105" t="n">
-        <v>113.375</v>
+        <v>142.5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>PYCARD</t>
+          <t>LGALS3</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.001757032918950004</v>
+        <v>0.002441972967867281</v>
       </c>
       <c r="C106" t="n">
-        <v>0.203157027818448</v>
+        <v>0.6834532374100719</v>
       </c>
       <c r="D106" t="n">
-        <v>0.05625</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="E106" t="n">
-        <v>0.00412542157434231</v>
+        <v>0.005847986386348935</v>
       </c>
       <c r="F106" t="n">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G106" t="n">
-        <v>150</v>
+        <v>129.5</v>
       </c>
       <c r="H106" t="n">
-        <v>157.5</v>
+        <v>129.5</v>
       </c>
       <c r="I106" t="n">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="J106" t="n">
-        <v>130.125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>APOBEC3A</t>
+          <t>DUSP2</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.001929932960435026</v>
+        <v>0.005613763205024182</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1948823735955056</v>
+        <v>0.7421875</v>
       </c>
       <c r="D107" t="n">
-        <v>0.09375</v>
+        <v>0.6526315789473685</v>
       </c>
       <c r="E107" t="n">
-        <v>0.00632133112589206</v>
+        <v>0.006094392129617988</v>
       </c>
       <c r="F107" t="n">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="G107" t="n">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="H107" t="n">
-        <v>180.5</v>
+        <v>179</v>
       </c>
       <c r="I107" t="n">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="J107" t="n">
-        <v>144.875</v>
+        <v>176.75</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CST7</t>
+          <t>GZMH</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.009183038274149425</v>
+        <v>0.001485892015779371</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1929850486787205</v>
+        <v>0.6270627062706271</v>
       </c>
       <c r="D108" t="n">
-        <v>0.03750000000000001</v>
+        <v>0.4052631578947368</v>
       </c>
       <c r="E108" t="n">
-        <v>0.003864961572897505</v>
+        <v>0.00427257831427822</v>
       </c>
       <c r="F108" t="n">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="G108" t="n">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="H108" t="n">
-        <v>131.5</v>
+        <v>37</v>
       </c>
       <c r="I108" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="J108" t="n">
-        <v>126.125</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MAP3K7CL</t>
+          <t>LYZ</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.004276256283088038</v>
+        <v>0.003486739997285994</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1182917732310315</v>
+        <v>0.6884057971014492</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0125</v>
+        <v>0.5473684210526316</v>
       </c>
       <c r="E109" t="n">
-        <v>0.002509736821862875</v>
+        <v>0.00563255084190234</v>
       </c>
       <c r="F109" t="n">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G109" t="n">
-        <v>62.5</v>
+        <v>134.5</v>
       </c>
       <c r="H109" t="n">
-        <v>76</v>
+        <v>134.5</v>
       </c>
       <c r="I109" t="n">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="J109" t="n">
-        <v>84.875</v>
+        <v>136.5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>FCER1A</t>
+          <t>RPL23A</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>7.861635220125786e-05</v>
+        <v>0.002267070669427463</v>
       </c>
       <c r="C110" t="n">
-        <v>0.134193665377176</v>
+        <v>0.6597222222222222</v>
       </c>
       <c r="D110" t="n">
-        <v>0.01875</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="E110" t="n">
-        <v>0.002442059319400911</v>
+        <v>0.004811318658418729</v>
       </c>
       <c r="F110" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G110" t="n">
-        <v>72</v>
+        <v>93.5</v>
       </c>
       <c r="H110" t="n">
-        <v>91.5</v>
+        <v>93.5</v>
       </c>
       <c r="I110" t="n">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="J110" t="n">
-        <v>82.375</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>KIAA0125</t>
+          <t>CCR7</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.001128981899709834</v>
+        <v>0.004106574562201327</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1970969460227273</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0125</v>
+        <v>0.6</v>
       </c>
       <c r="E111" t="n">
-        <v>0.002743272471965368</v>
+        <v>0.005695724719484011</v>
       </c>
       <c r="F111" t="n">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="G111" t="n">
-        <v>143</v>
+        <v>155.5</v>
       </c>
       <c r="H111" t="n">
-        <v>76</v>
+        <v>155.5</v>
       </c>
       <c r="I111" t="n">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="J111" t="n">
-        <v>100.75</v>
+        <v>152.5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MS4A1</t>
+          <t>EAF2</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.02632602496723249</v>
+        <v>0.001319935614167207</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1890412125340599</v>
+        <v>0.625</v>
       </c>
       <c r="D112" t="n">
-        <v>0.07500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="E112" t="n">
-        <v>0.005145918012866602</v>
+        <v>0.004537779702717463</v>
       </c>
       <c r="F112" t="n">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="G112" t="n">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="H112" t="n">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="I112" t="n">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="J112" t="n">
-        <v>151.75</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>EAF2</t>
+          <t>HLA-DMB</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.1414138411745135</v>
+        <v>0.001723492116443834</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2421575043630018</v>
+        <v>0.6484641638225256</v>
       </c>
       <c r="D113" t="n">
-        <v>0.05</v>
+        <v>0.4578947368421052</v>
       </c>
       <c r="E113" t="n">
-        <v>0.004192043645686265</v>
+        <v>0.005298877507020675</v>
       </c>
       <c r="F113" t="n">
-        <v>203</v>
+        <v>60</v>
       </c>
       <c r="G113" t="n">
-        <v>203.5</v>
+        <v>77.5</v>
       </c>
       <c r="H113" t="n">
-        <v>149.5</v>
+        <v>77.5</v>
       </c>
       <c r="I113" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J113" t="n">
-        <v>165.75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>LGALS2</t>
+          <t>NEAT1</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.008184894461026389</v>
+        <v>0.004277350925964037</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2234400161030596</v>
+        <v>0.7196969696969697</v>
       </c>
       <c r="D114" t="n">
-        <v>0.10625</v>
+        <v>0.6105263157894737</v>
       </c>
       <c r="E114" t="n">
-        <v>0.007864611473407614</v>
+        <v>0.005799615298146162</v>
       </c>
       <c r="F114" t="n">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="G114" t="n">
-        <v>187.5</v>
+        <v>161.5</v>
       </c>
       <c r="H114" t="n">
-        <v>189</v>
+        <v>161.5</v>
       </c>
       <c r="I114" t="n">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="J114" t="n">
-        <v>170.375</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CD160</t>
+          <t>PYCARD</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.00213870211862755</v>
+        <v>0.00245270648597816</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2227227126805779</v>
+        <v>0.6934306569343066</v>
       </c>
       <c r="D115" t="n">
-        <v>0.03750000000000001</v>
+        <v>0.5578947368421052</v>
       </c>
       <c r="E115" t="n">
-        <v>0.004390725396520489</v>
+        <v>0.005786617956860262</v>
       </c>
       <c r="F115" t="n">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G115" t="n">
-        <v>185</v>
+        <v>141.5</v>
       </c>
       <c r="H115" t="n">
-        <v>131.5</v>
+        <v>141.5</v>
       </c>
       <c r="I115" t="n">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="J115" t="n">
-        <v>134.875</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MARCH2</t>
+          <t>RPL14</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.07846073737656369</v>
+        <v>0.001576052177232319</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1548618861607143</v>
+        <v>0.6188925081433225</v>
       </c>
       <c r="D116" t="n">
-        <v>0.03125</v>
+        <v>0.3842105263157894</v>
       </c>
       <c r="E116" t="n">
-        <v>0.004206050857430903</v>
+        <v>0.003853265464008622</v>
       </c>
       <c r="F116" t="n">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="G116" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="H116" t="n">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="I116" t="n">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="J116" t="n">
-        <v>125.5</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BLNK</t>
+          <t>VPREB3</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.0355628714076292</v>
+        <v>0.0008172133872200777</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2238004032258065</v>
+        <v>0.5900621118012422</v>
       </c>
       <c r="D117" t="n">
-        <v>0.03125</v>
+        <v>0.3052631578947368</v>
       </c>
       <c r="E117" t="n">
-        <v>0.004875220687602424</v>
+        <v>0.003688634902123776</v>
       </c>
       <c r="F117" t="n">
-        <v>179</v>
+        <v>3</v>
       </c>
       <c r="G117" t="n">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="H117" t="n">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="J117" t="n">
-        <v>153.25</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>HVCN1</t>
+          <t>CST7</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.03396224448984982</v>
+        <v>0.003710662299904578</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2099186838124055</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D118" t="n">
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
       <c r="E118" t="n">
-        <v>0.004873614556649386</v>
+        <v>0.005932857247764239</v>
       </c>
       <c r="F118" t="n">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="G118" t="n">
-        <v>163</v>
+        <v>155.5</v>
       </c>
       <c r="H118" t="n">
-        <v>149.5</v>
+        <v>155.5</v>
       </c>
       <c r="I118" t="n">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="J118" t="n">
-        <v>153.625</v>
+        <v>155.25</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>IGFBP7</t>
+          <t>MS4A1</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.01895458811596411</v>
+        <v>0.003068840939849482</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2234400161030596</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="D119" t="n">
-        <v>0.06875000000000001</v>
+        <v>0.5526315789473684</v>
       </c>
       <c r="E119" t="n">
-        <v>0.005070792395697728</v>
+        <v>0.005739166674187814</v>
       </c>
       <c r="F119" t="n">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="G119" t="n">
-        <v>187.5</v>
+        <v>138.5</v>
       </c>
       <c r="H119" t="n">
-        <v>165</v>
+        <v>138.5</v>
       </c>
       <c r="I119" t="n">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="J119" t="n">
-        <v>162.375</v>
+        <v>135.75</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>FCRLA</t>
+          <t>PFN1</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.002535089888735628</v>
+        <v>0.001422774735999626</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1772110472541507</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D120" t="n">
-        <v>0.03750000000000001</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="E120" t="n">
-        <v>0.003647639887141747</v>
+        <v>0.004156477532596019</v>
       </c>
       <c r="F120" t="n">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="G120" t="n">
-        <v>112.5</v>
+        <v>51.5</v>
       </c>
       <c r="H120" t="n">
-        <v>131.5</v>
+        <v>51.5</v>
       </c>
       <c r="I120" t="n">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="J120" t="n">
-        <v>113.5</v>
+        <v>38.25</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>PF4</t>
+          <t>NPC2</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.0009366428263713997</v>
+        <v>0.004506775262288674</v>
       </c>
       <c r="C121" t="n">
-        <v>0.171304012345679</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="D121" t="n">
-        <v>0.025</v>
+        <v>0.6578947368421052</v>
       </c>
       <c r="E121" t="n">
-        <v>0.00343742604249624</v>
+        <v>0.006360410835810669</v>
       </c>
       <c r="F121" t="n">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="G121" t="n">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="H121" t="n">
-        <v>104.5</v>
+        <v>181</v>
       </c>
       <c r="I121" t="n">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="J121" t="n">
-        <v>98.875</v>
+        <v>177.75</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>TPM1</t>
+          <t>LY86</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>0.001201903923126444</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1560812710911136</v>
+        <v>0.6291390728476821</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0125</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="E122" t="n">
-        <v>0.002185559418433888</v>
+        <v>0.004741996091509896</v>
       </c>
       <c r="F122" t="n">
-        <v>61.5</v>
+        <v>19</v>
       </c>
       <c r="G122" t="n">
-        <v>86</v>
+        <v>43.5</v>
       </c>
       <c r="H122" t="n">
-        <v>76</v>
+        <v>43.5</v>
       </c>
       <c r="I122" t="n">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="J122" t="n">
-        <v>73.875</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>PRF1</t>
+          <t>BLVRB</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>6.389422073384336e-05</v>
+        <v>0.001808917571635668</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1740981806775408</v>
+        <v>0.6397306397306397</v>
       </c>
       <c r="D123" t="n">
-        <v>0.025</v>
+        <v>0.4368421052631579</v>
       </c>
       <c r="E123" t="n">
-        <v>0.00247335098834267</v>
+        <v>0.004893669094304541</v>
       </c>
       <c r="F123" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="G123" t="n">
-        <v>102</v>
+        <v>62.5</v>
       </c>
       <c r="H123" t="n">
-        <v>104.5</v>
+        <v>62.5</v>
       </c>
       <c r="I123" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="J123" t="n">
-        <v>92.625</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>GIMAP5</t>
+          <t>PKIG</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>0.001759108885514698</v>
       </c>
       <c r="C124" t="n">
-        <v>0.00625</v>
+        <v>0.6291390728476821</v>
       </c>
       <c r="D124" t="n">
-        <v>0.00625</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="E124" t="n">
-        <v>0.006211180124223602</v>
+        <v>0.0045135081297509</v>
       </c>
       <c r="F124" t="n">
-        <v>61.5</v>
+        <v>63</v>
       </c>
       <c r="G124" t="n">
-        <v>49.5</v>
+        <v>43.5</v>
       </c>
       <c r="H124" t="n">
-        <v>56</v>
+        <v>43.5</v>
       </c>
       <c r="I124" t="n">
-        <v>147.5</v>
+        <v>32</v>
       </c>
       <c r="J124" t="n">
-        <v>78.625</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>GIMAP7</t>
+          <t>GZMM</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>0.006290576484815246</v>
       </c>
       <c r="C125" t="n">
-        <v>0.00625</v>
+        <v>0.7755102040816326</v>
       </c>
       <c r="D125" t="n">
-        <v>0.00625</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="E125" t="n">
-        <v>0.006211180124223602</v>
+        <v>0.006899840594417643</v>
       </c>
       <c r="F125" t="n">
-        <v>61.5</v>
+        <v>191</v>
       </c>
       <c r="G125" t="n">
-        <v>49.5</v>
+        <v>191</v>
       </c>
       <c r="H125" t="n">
-        <v>56</v>
+        <v>191</v>
       </c>
       <c r="I125" t="n">
-        <v>147.5</v>
+        <v>190</v>
       </c>
       <c r="J125" t="n">
-        <v>78.625</v>
+        <v>190.75</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>GPX1</t>
+          <t>FCER2</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2.664886613488776e-05</v>
+        <v>0.001107148198308684</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1774376598465473</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D126" t="n">
-        <v>0.01875</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="E126" t="n">
-        <v>0.002125000864499784</v>
+        <v>0.00439914114677136</v>
       </c>
       <c r="F126" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="G126" t="n">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="H126" t="n">
-        <v>91.5</v>
+        <v>17</v>
       </c>
       <c r="I126" t="n">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="J126" t="n">
-        <v>89.125</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SNX29P2</t>
+          <t>NCR3</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.01265028219319646</v>
+        <v>0.001693905209189603</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1957069816643159</v>
+        <v>0.6270627062706271</v>
       </c>
       <c r="D127" t="n">
-        <v>0.025</v>
+        <v>0.4052631578947368</v>
       </c>
       <c r="E127" t="n">
-        <v>0.004631667709443382</v>
+        <v>0.004230605634155831</v>
       </c>
       <c r="F127" t="n">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="G127" t="n">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="H127" t="n">
-        <v>104.5</v>
+        <v>37</v>
       </c>
       <c r="I127" t="n">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="J127" t="n">
-        <v>129.375</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ABI3</t>
+          <t>RPL36</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>0.00168432866376933</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1649895957193817</v>
+        <v>0.6148867313915858</v>
       </c>
       <c r="D128" t="n">
-        <v>0.00625</v>
+        <v>0.3736842105263158</v>
       </c>
       <c r="E128" t="n">
-        <v>0.001423085586253685</v>
+        <v>0.003640301917921048</v>
       </c>
       <c r="F128" t="n">
-        <v>61.5</v>
+        <v>56</v>
       </c>
       <c r="G128" t="n">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="H128" t="n">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="I128" t="n">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="J128" t="n">
-        <v>65.875</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>KLRG1</t>
+          <t>BANK1</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.002153177791892393</v>
+        <v>0.002533246454780698</v>
       </c>
       <c r="C129" t="n">
-        <v>0.2147929566563468</v>
+        <v>0.6643356643356644</v>
       </c>
       <c r="D129" t="n">
-        <v>0.03125</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="E129" t="n">
-        <v>0.003577066997761959</v>
+        <v>0.005064745828258742</v>
       </c>
       <c r="F129" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G129" t="n">
-        <v>171.5</v>
+        <v>102.5</v>
       </c>
       <c r="H129" t="n">
-        <v>119</v>
+        <v>102.5</v>
       </c>
       <c r="I129" t="n">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="J129" t="n">
-        <v>123.875</v>
+        <v>96.75</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>PHACTR1</t>
+          <t>CD99</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.01510291917850682</v>
+        <v>0.004529542204418247</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1927170138888889</v>
+        <v>0.7364341085271318</v>
       </c>
       <c r="D130" t="n">
-        <v>0.06875000000000001</v>
+        <v>0.6421052631578947</v>
       </c>
       <c r="E130" t="n">
-        <v>0.005037808206757369</v>
+        <v>0.00610341015231061</v>
       </c>
       <c r="F130" t="n">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="G130" t="n">
-        <v>133</v>
+        <v>175.5</v>
       </c>
       <c r="H130" t="n">
-        <v>165</v>
+        <v>175.5</v>
       </c>
       <c r="I130" t="n">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="J130" t="n">
-        <v>146.5</v>
+        <v>172.25</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>PPBP</t>
+          <t>PTPRCAP</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.1120199954566176</v>
+        <v>0.004630582330721292</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2102367424242425</v>
+        <v>0.7480314960629921</v>
       </c>
       <c r="D131" t="n">
-        <v>0.03750000000000001</v>
+        <v>0.6631578947368421</v>
       </c>
       <c r="E131" t="n">
-        <v>0.00339754417215932</v>
+        <v>0.006324670636508985</v>
       </c>
       <c r="F131" t="n">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="G131" t="n">
-        <v>164.5</v>
+        <v>183</v>
       </c>
       <c r="H131" t="n">
-        <v>131.5</v>
+        <v>183</v>
       </c>
       <c r="I131" t="n">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="J131" t="n">
-        <v>145.75</v>
+        <v>179.25</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>FCN1</t>
+          <t>FGFBP2</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.01242158916708627</v>
+        <v>0.001445994222491315</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2223657852564103</v>
+        <v>0.6354515050167224</v>
       </c>
       <c r="D132" t="n">
-        <v>0.06875000000000001</v>
+        <v>0.4263157894736842</v>
       </c>
       <c r="E132" t="n">
-        <v>0.004818292342557426</v>
+        <v>0.004725454032996271</v>
       </c>
       <c r="F132" t="n">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="G132" t="n">
-        <v>184</v>
+        <v>55</v>
       </c>
       <c r="H132" t="n">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="I132" t="n">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="J132" t="n">
-        <v>156</v>
+        <v>47.25</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SAT1</t>
+          <t>FCRLA</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>0.001198517458957472</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1723680124223602</v>
+        <v>0.6089743589743589</v>
       </c>
       <c r="D133" t="n">
-        <v>0.00625</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="E133" t="n">
-        <v>0.001357256355571121</v>
+        <v>0.004108379353955386</v>
       </c>
       <c r="F133" t="n">
-        <v>61.5</v>
+        <v>18</v>
       </c>
       <c r="G133" t="n">
-        <v>101</v>
+        <v>12.5</v>
       </c>
       <c r="H133" t="n">
-        <v>56</v>
+        <v>12.5</v>
       </c>
       <c r="I133" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="J133" t="n">
-        <v>67.125</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>IGLL5</t>
+          <t>CXCR4</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.01186486494272526</v>
+        <v>0.004739100746181519</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2005148121387283</v>
+        <v>0.7335907335907336</v>
       </c>
       <c r="D134" t="n">
-        <v>0.05</v>
+        <v>0.6368421052631579</v>
       </c>
       <c r="E134" t="n">
-        <v>0.003917503144202854</v>
+        <v>0.005924651733534259</v>
       </c>
       <c r="F134" t="n">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="G134" t="n">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="H134" t="n">
-        <v>149.5</v>
+        <v>173</v>
       </c>
       <c r="I134" t="n">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="J134" t="n">
-        <v>137.125</v>
+        <v>170.25</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>RP11-367G6.3</t>
+          <t>APOBEC3G</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.0008924649796056123</v>
+        <v>0.005107349550710551</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1940646853146853</v>
+        <v>0.7364341085271318</v>
       </c>
       <c r="D135" t="n">
-        <v>0.01875</v>
+        <v>0.6421052631578947</v>
       </c>
       <c r="E135" t="n">
-        <v>0.002084855222820466</v>
+        <v>0.006224116561410135</v>
       </c>
       <c r="F135" t="n">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="G135" t="n">
-        <v>136</v>
+        <v>175.5</v>
       </c>
       <c r="H135" t="n">
-        <v>91.5</v>
+        <v>175.5</v>
       </c>
       <c r="I135" t="n">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="J135" t="n">
-        <v>99.375</v>
+        <v>175.25</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>NRGN</t>
+          <t>MATK</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.08653567792893309</v>
+        <v>0.002154927703043041</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2384128006872852</v>
+        <v>0.6354515050167224</v>
       </c>
       <c r="D136" t="n">
-        <v>0.03750000000000001</v>
+        <v>0.4263157894736842</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0031571460666721</v>
+        <v>0.004331697757363879</v>
       </c>
       <c r="F136" t="n">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="G136" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="H136" t="n">
-        <v>131.5</v>
+        <v>55</v>
       </c>
       <c r="I136" t="n">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="J136" t="n">
-        <v>152.625</v>
+        <v>53.75</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>PNOC</t>
+          <t>HLA-DQA2</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>0.001017961413209598</v>
       </c>
       <c r="C137" t="n">
-        <v>0.208656015037594</v>
+        <v>0.5956112852664577</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0125</v>
+        <v>0.3210526315789474</v>
       </c>
       <c r="E137" t="n">
-        <v>0.002293448109727771</v>
+        <v>0.003567126347768009</v>
       </c>
       <c r="F137" t="n">
-        <v>61.5</v>
+        <v>9</v>
       </c>
       <c r="G137" t="n">
-        <v>159.5</v>
+        <v>3</v>
       </c>
       <c r="H137" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="I137" t="n">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="J137" t="n">
-        <v>92.75</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>HIST1H2AC</t>
+          <t>SMIM14</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>0.001849390210621724</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1959834039548023</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D138" t="n">
-        <v>0.00625</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="E138" t="n">
-        <v>0.001622745974773956</v>
+        <v>0.003834346319583395</v>
       </c>
       <c r="F138" t="n">
-        <v>61.5</v>
+        <v>66</v>
       </c>
       <c r="G138" t="n">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="H138" t="n">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="I138" t="n">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="J138" t="n">
-        <v>79.625</v>
+        <v>27</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>RGS18</t>
+          <t>LTB</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>7.713935617908432e-05</v>
+        <v>0.002770213552860406</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1999369596541787</v>
+        <v>0.6690140845070423</v>
       </c>
       <c r="D139" t="n">
-        <v>0.025</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="E139" t="n">
-        <v>0.002310093895809772</v>
+        <v>0.004814569558220247</v>
       </c>
       <c r="F139" t="n">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="G139" t="n">
-        <v>146</v>
+        <v>110.5</v>
       </c>
       <c r="H139" t="n">
-        <v>104.5</v>
+        <v>110.5</v>
       </c>
       <c r="I139" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="J139" t="n">
-        <v>103.125</v>
+        <v>98.25</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CTSW</t>
+          <t>FTH1</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>0.002298906379761551</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1760866116751269</v>
+        <v>0.6597222222222222</v>
       </c>
       <c r="D140" t="n">
-        <v>0.00625</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="E140" t="n">
-        <v>0.001426524172591959</v>
+        <v>0.004725115588735246</v>
       </c>
       <c r="F140" t="n">
-        <v>61.5</v>
+        <v>93</v>
       </c>
       <c r="G140" t="n">
-        <v>110</v>
+        <v>93.5</v>
       </c>
       <c r="H140" t="n">
-        <v>56</v>
+        <v>93.5</v>
       </c>
       <c r="I140" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J140" t="n">
-        <v>70.125</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>MYL9</t>
+          <t>BLK</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.01085701804668762</v>
+        <v>0.001423512558468749</v>
       </c>
       <c r="C141" t="n">
-        <v>0.1993624281609195</v>
+        <v>0.6188925081433225</v>
       </c>
       <c r="D141" t="n">
-        <v>0.05</v>
+        <v>0.3842105263157894</v>
       </c>
       <c r="E141" t="n">
-        <v>0.003582709222245732</v>
+        <v>0.004362992920607974</v>
       </c>
       <c r="F141" t="n">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="G141" t="n">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="H141" t="n">
-        <v>149.5</v>
+        <v>24</v>
       </c>
       <c r="I141" t="n">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="J141" t="n">
-        <v>133.125</v>
+        <v>26.75</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SMIM14</t>
+          <t>CD79B</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>0.004876489512034712</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1749763556116015</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0125</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="E142" t="n">
-        <v>0.001548512460398011</v>
+        <v>0.006099285246393672</v>
       </c>
       <c r="F142" t="n">
-        <v>61.5</v>
+        <v>177</v>
       </c>
       <c r="G142" t="n">
-        <v>106</v>
+        <v>171.5</v>
       </c>
       <c r="H142" t="n">
-        <v>76</v>
+        <v>171.5</v>
       </c>
       <c r="I142" t="n">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="J142" t="n">
-        <v>74.875</v>
+        <v>171.25</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>PRR5</t>
+          <t>SAT1</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>0.004591124197472763</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1783499357326478</v>
+        <v>0.7364341085271318</v>
       </c>
       <c r="D143" t="n">
-        <v>0.00625</v>
+        <v>0.6421052631578947</v>
       </c>
       <c r="E143" t="n">
-        <v>0.001649704169606651</v>
+        <v>0.006448551768647249</v>
       </c>
       <c r="F143" t="n">
-        <v>61.5</v>
+        <v>173</v>
       </c>
       <c r="G143" t="n">
-        <v>115</v>
+        <v>175.5</v>
       </c>
       <c r="H143" t="n">
-        <v>56</v>
+        <v>175.5</v>
       </c>
       <c r="I143" t="n">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="J143" t="n">
-        <v>73.125</v>
+        <v>176.25</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>XCL2</t>
+          <t>HVCN1</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>0.001688098740103134</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1513154307524537</v>
+        <v>0.625</v>
       </c>
       <c r="D144" t="n">
-        <v>0.0125</v>
+        <v>0.4</v>
       </c>
       <c r="E144" t="n">
-        <v>0.001497901762315477</v>
+        <v>0.004317249417251414</v>
       </c>
       <c r="F144" t="n">
-        <v>61.5</v>
+        <v>57</v>
       </c>
       <c r="G144" t="n">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="H144" t="n">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="I144" t="n">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="J144" t="n">
-        <v>68.875</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>AIF1</t>
+          <t>CCL4</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.0003611828797902495</v>
+        <v>0.002461254425906381</v>
       </c>
       <c r="C145" t="n">
-        <v>0.2083427177177177</v>
+        <v>0.6713780918727915</v>
       </c>
       <c r="D145" t="n">
-        <v>0.05625</v>
+        <v>0.5105263157894737</v>
       </c>
       <c r="E145" t="n">
-        <v>0.00346197019523191</v>
+        <v>0.005392319210907263</v>
       </c>
       <c r="F145" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G145" t="n">
-        <v>157.5</v>
+        <v>115</v>
       </c>
       <c r="H145" t="n">
-        <v>157.5</v>
+        <v>115</v>
       </c>
       <c r="I145" t="n">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="J145" t="n">
-        <v>125.75</v>
+        <v>110.25</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>CD19</t>
+          <t>CD2</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.1146972231784541</v>
+        <v>0.004087467982877949</v>
       </c>
       <c r="C146" t="n">
-        <v>0.2241619547657512</v>
+        <v>0.7089552238805971</v>
       </c>
       <c r="D146" t="n">
-        <v>0.0125</v>
+        <v>0.5894736842105263</v>
       </c>
       <c r="E146" t="n">
-        <v>0.001920206273861771</v>
+        <v>0.005438866972913865</v>
       </c>
       <c r="F146" t="n">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="G146" t="n">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="H146" t="n">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="I146" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="J146" t="n">
-        <v>133.75</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SEPT5</t>
+          <t>TPT1</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.001218398260724496</v>
+        <v>0.003329334073005894</v>
       </c>
       <c r="C147" t="n">
-        <v>0.1248931143114311</v>
+        <v>0.6737588652482269</v>
       </c>
       <c r="D147" t="n">
-        <v>0.01875</v>
+        <v>0.5157894736842105</v>
       </c>
       <c r="E147" t="n">
-        <v>0.001732958494457243</v>
+        <v>0.004841092479335034</v>
       </c>
       <c r="F147" t="n">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="G147" t="n">
-        <v>65</v>
+        <v>119.5</v>
       </c>
       <c r="H147" t="n">
-        <v>91.5</v>
+        <v>119.5</v>
       </c>
       <c r="I147" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J147" t="n">
-        <v>80.375</v>
+        <v>108</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>CEBPB</t>
+          <t>FTL</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>0.002333670261018522</v>
       </c>
       <c r="C148" t="n">
-        <v>0.1569640837104073</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="D148" t="n">
-        <v>0.00625</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="E148" t="n">
-        <v>0.001339454696808493</v>
+        <v>0.004707316585917254</v>
       </c>
       <c r="F148" t="n">
-        <v>61.5</v>
+        <v>95</v>
       </c>
       <c r="G148" t="n">
-        <v>87</v>
+        <v>86.5</v>
       </c>
       <c r="H148" t="n">
-        <v>56</v>
+        <v>86.5</v>
       </c>
       <c r="I148" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J148" t="n">
-        <v>63.375</v>
+        <v>77.25</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>MFSD1</t>
+          <t>CYBA</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>3.930817610062893e-05</v>
+        <v>0.003518622118728216</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1053578208048595</v>
+        <v>0.6884057971014492</v>
       </c>
       <c r="D149" t="n">
-        <v>0.0125</v>
+        <v>0.5473684210526316</v>
       </c>
       <c r="E149" t="n">
-        <v>0.002067793186288952</v>
+        <v>0.005324166274749826</v>
       </c>
       <c r="F149" t="n">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="G149" t="n">
-        <v>58</v>
+        <v>134.5</v>
       </c>
       <c r="H149" t="n">
-        <v>76</v>
+        <v>134.5</v>
       </c>
       <c r="I149" t="n">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="J149" t="n">
-        <v>71.25</v>
+        <v>129</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>MPP1</t>
+          <t>KLRG1</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>0.003593293228779844</v>
       </c>
       <c r="C150" t="n">
-        <v>0.132908285440613</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="D150" t="n">
-        <v>0.00625</v>
+        <v>0.5526315789473684</v>
       </c>
       <c r="E150" t="n">
-        <v>0.001587369723010223</v>
+        <v>0.005363085751147793</v>
       </c>
       <c r="F150" t="n">
-        <v>61.5</v>
+        <v>146</v>
       </c>
       <c r="G150" t="n">
-        <v>71</v>
+        <v>138.5</v>
       </c>
       <c r="H150" t="n">
-        <v>56</v>
+        <v>138.5</v>
       </c>
       <c r="I150" t="n">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="J150" t="n">
-        <v>61.625</v>
+        <v>132.5</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>CD79B</t>
+          <t>C12orf75</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2.445842068483578e-05</v>
+        <v>0.005233824611039928</v>
       </c>
       <c r="C151" t="n">
-        <v>0.184516289893617</v>
+        <v>0.7480314960629921</v>
       </c>
       <c r="D151" t="n">
-        <v>0.0125</v>
+        <v>0.6631578947368421</v>
       </c>
       <c r="E151" t="n">
-        <v>0.00180363921839923</v>
+        <v>0.006279452716930791</v>
       </c>
       <c r="F151" t="n">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="G151" t="n">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="H151" t="n">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="I151" t="n">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="J151" t="n">
-        <v>85.25</v>
+        <v>179.75</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SWAP70</t>
+          <t>APMAP</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>0.002770887840040048</v>
       </c>
       <c r="C152" t="n">
-        <v>0.00625</v>
+        <v>0.6713780918727915</v>
       </c>
       <c r="D152" t="n">
-        <v>0.00625</v>
+        <v>0.5105263157894737</v>
       </c>
       <c r="E152" t="n">
-        <v>0.006211180124223602</v>
+        <v>0.005089803334960628</v>
       </c>
       <c r="F152" t="n">
-        <v>61.5</v>
+        <v>118</v>
       </c>
       <c r="G152" t="n">
-        <v>49.5</v>
+        <v>115</v>
       </c>
       <c r="H152" t="n">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="I152" t="n">
-        <v>147.5</v>
+        <v>82</v>
       </c>
       <c r="J152" t="n">
-        <v>78.625</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>TSC22D1</t>
+          <t>FCGRT</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>0.001968838672175803</v>
       </c>
       <c r="C153" t="n">
-        <v>0.00625</v>
+        <v>0.6643356643356644</v>
       </c>
       <c r="D153" t="n">
-        <v>0.00625</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="E153" t="n">
-        <v>0.006211180124223602</v>
+        <v>0.00523275961162062</v>
       </c>
       <c r="F153" t="n">
-        <v>61.5</v>
+        <v>72</v>
       </c>
       <c r="G153" t="n">
-        <v>49.5</v>
+        <v>102.5</v>
       </c>
       <c r="H153" t="n">
-        <v>56</v>
+        <v>102.5</v>
       </c>
       <c r="I153" t="n">
-        <v>147.5</v>
+        <v>94</v>
       </c>
       <c r="J153" t="n">
-        <v>78.625</v>
+        <v>92.75</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>PTCRA</t>
+          <t>NPM1</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>0.003624940120446213</v>
       </c>
       <c r="C154" t="n">
-        <v>0.0125</v>
+        <v>0.6834532374100719</v>
       </c>
       <c r="D154" t="n">
-        <v>0.00625</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="E154" t="n">
-        <v>0.001292543029652711</v>
+        <v>0.004955540550382706</v>
       </c>
       <c r="F154" t="n">
-        <v>61.5</v>
+        <v>147</v>
       </c>
       <c r="G154" t="n">
-        <v>53</v>
+        <v>129.5</v>
       </c>
       <c r="H154" t="n">
-        <v>56</v>
+        <v>129.5</v>
       </c>
       <c r="I154" t="n">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="J154" t="n">
-        <v>54.625</v>
+        <v>118.25</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>EFHD2</t>
+          <t>PDLIM1</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.000352715361004899</v>
+        <v>0.001416422031321202</v>
       </c>
       <c r="C155" t="n">
-        <v>0.1882717096336499</v>
+        <v>0.6209150326797386</v>
       </c>
       <c r="D155" t="n">
-        <v>0.04375</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="E155" t="n">
-        <v>0.00289998819678715</v>
+        <v>0.004053952002632427</v>
       </c>
       <c r="F155" t="n">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="G155" t="n">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="H155" t="n">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="I155" t="n">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="J155" t="n">
-        <v>111.75</v>
+        <v>25.25</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>TTC38</t>
+          <t>LAG3</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>0.001403759442975468</v>
       </c>
       <c r="C156" t="n">
-        <v>0.161909276546091</v>
+        <v>0.5993690851735016</v>
       </c>
       <c r="D156" t="n">
-        <v>0.00625</v>
+        <v>0.331578947368421</v>
       </c>
       <c r="E156" t="n">
-        <v>0.0017906456116759</v>
+        <v>0.003407440354437757</v>
       </c>
       <c r="F156" t="n">
-        <v>61.5</v>
+        <v>31</v>
       </c>
       <c r="G156" t="n">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="H156" t="n">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="I156" t="n">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="J156" t="n">
-        <v>67.875</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SAMD3</t>
+          <t>GNG7</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.0002672955974842766</v>
+        <v>0.001648453514471424</v>
       </c>
       <c r="C157" t="n">
-        <v>0.1611570847851336</v>
+        <v>0.6291390728476821</v>
       </c>
       <c r="D157" t="n">
-        <v>0.01875</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="E157" t="n">
-        <v>0.001904907654489097</v>
+        <v>0.004392108527482904</v>
       </c>
       <c r="F157" t="n">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="G157" t="n">
-        <v>88</v>
+        <v>43.5</v>
       </c>
       <c r="H157" t="n">
-        <v>91.5</v>
+        <v>43.5</v>
       </c>
       <c r="I157" t="n">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="J157" t="n">
-        <v>84.875</v>
+        <v>41.75</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ID2</t>
+          <t>COTL1</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>0.003061084220365046</v>
       </c>
       <c r="C158" t="n">
-        <v>0.1743168969849246</v>
+        <v>0.6985294117647058</v>
       </c>
       <c r="D158" t="n">
-        <v>0.00625</v>
+        <v>0.5684210526315789</v>
       </c>
       <c r="E158" t="n">
-        <v>0.001233479599400444</v>
+        <v>0.005437293076390886</v>
       </c>
       <c r="F158" t="n">
-        <v>61.5</v>
+        <v>122</v>
       </c>
       <c r="G158" t="n">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="H158" t="n">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="I158" t="n">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="J158" t="n">
-        <v>66.875</v>
+        <v>132.5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>NPC2</t>
+          <t>ISG20</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1.572327044025157e-05</v>
+        <v>0.005294870835658897</v>
       </c>
       <c r="C159" t="n">
-        <v>0.187508445945946</v>
+        <v>0.7480314960629921</v>
       </c>
       <c r="D159" t="n">
-        <v>0.0125</v>
+        <v>0.6631578947368421</v>
       </c>
       <c r="E159" t="n">
-        <v>0.001509220474662695</v>
+        <v>0.0062085823747868</v>
       </c>
       <c r="F159" t="n">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="G159" t="n">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="H159" t="n">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="I159" t="n">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="J159" t="n">
-        <v>83.5</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>TNFRSF1B</t>
+          <t>PSAP</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>0.003546577489455633</v>
       </c>
       <c r="C160" t="n">
-        <v>0.1484024064171123</v>
+        <v>0.7116104868913857</v>
       </c>
       <c r="D160" t="n">
-        <v>0.00625</v>
+        <v>0.5947368421052631</v>
       </c>
       <c r="E160" t="n">
-        <v>0.001420039738666049</v>
+        <v>0.005790757028966247</v>
       </c>
       <c r="F160" t="n">
-        <v>61.5</v>
+        <v>144</v>
       </c>
       <c r="G160" t="n">
-        <v>82</v>
+        <v>151.5</v>
       </c>
       <c r="H160" t="n">
-        <v>56</v>
+        <v>151.5</v>
       </c>
       <c r="I160" t="n">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="J160" t="n">
-        <v>62.625</v>
+        <v>148.25</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>TUBB1</t>
+          <t>AC092580.4</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>0.0026917066093666</v>
       </c>
       <c r="C161" t="n">
-        <v>0.00625</v>
+        <v>0.6713780918727915</v>
       </c>
       <c r="D161" t="n">
-        <v>0.00625</v>
+        <v>0.5105263157894737</v>
       </c>
       <c r="E161" t="n">
-        <v>0.006211180124223602</v>
+        <v>0.004944696673708331</v>
       </c>
       <c r="F161" t="n">
-        <v>61.5</v>
+        <v>114</v>
       </c>
       <c r="G161" t="n">
-        <v>49.5</v>
+        <v>115</v>
       </c>
       <c r="H161" t="n">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="I161" t="n">
-        <v>147.5</v>
+        <v>66</v>
       </c>
       <c r="J161" t="n">
-        <v>78.625</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ZAP70</t>
+          <t>CD3E</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>0.00421947483663083</v>
       </c>
       <c r="C162" t="n">
-        <v>0.00625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D162" t="n">
-        <v>0.00625</v>
+        <v>0.6</v>
       </c>
       <c r="E162" t="n">
-        <v>0.006211180124223602</v>
+        <v>0.005487519925307891</v>
       </c>
       <c r="F162" t="n">
-        <v>61.5</v>
+        <v>162</v>
       </c>
       <c r="G162" t="n">
-        <v>49.5</v>
+        <v>155.5</v>
       </c>
       <c r="H162" t="n">
-        <v>56</v>
+        <v>155.5</v>
       </c>
       <c r="I162" t="n">
-        <v>147.5</v>
+        <v>122</v>
       </c>
       <c r="J162" t="n">
-        <v>78.625</v>
+        <v>148.75</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>HLA-E</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.003318067350434732</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.6761565836298933</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.5210526315789473</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.004813766513951789</v>
+      </c>
+      <c r="F163" t="n">
+        <v>135</v>
+      </c>
+      <c r="G163" t="n">
+        <v>124</v>
+      </c>
+      <c r="H163" t="n">
+        <v>124</v>
+      </c>
+      <c r="I163" t="n">
+        <v>54</v>
+      </c>
+      <c r="J163" t="n">
+        <v>109.25</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>HLA-DOB</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.001107728993479961</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.6089743589743589</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.3578947368421053</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.003961083234437826</v>
+      </c>
+      <c r="F164" t="n">
+        <v>13</v>
+      </c>
+      <c r="G164" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H164" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I164" t="n">
+        <v>11</v>
+      </c>
+      <c r="J164" t="n">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>AIF1</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.002633990979339796</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.6761565836298933</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.5210526315789473</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.00524356519881989</v>
+      </c>
+      <c r="F165" t="n">
+        <v>112</v>
+      </c>
+      <c r="G165" t="n">
+        <v>124</v>
+      </c>
+      <c r="H165" t="n">
+        <v>124</v>
+      </c>
+      <c r="I165" t="n">
+        <v>98</v>
+      </c>
+      <c r="J165" t="n">
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>GSTP1</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0.005799530692532119</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.7569721115537849</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.6789473684210526</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.006248838608316144</v>
+      </c>
+      <c r="F166" t="n">
+        <v>188</v>
+      </c>
+      <c r="G166" t="n">
+        <v>186</v>
+      </c>
+      <c r="H166" t="n">
+        <v>186</v>
+      </c>
+      <c r="I166" t="n">
+        <v>172</v>
+      </c>
+      <c r="J166" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>TKT</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0.004098075887400382</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.7224334600760456</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.6157894736842106</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.005917002061152069</v>
+      </c>
+      <c r="F167" t="n">
+        <v>157</v>
+      </c>
+      <c r="G167" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="H167" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="I167" t="n">
+        <v>157</v>
+      </c>
+      <c r="J167" t="n">
+        <v>160.75</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>FCRL6</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0.001059783331209051</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.6089743589743589</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.3578947368421053</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.003955454470043192</v>
+      </c>
+      <c r="F168" t="n">
+        <v>10</v>
+      </c>
+      <c r="G168" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H168" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I168" t="n">
+        <v>10</v>
+      </c>
+      <c r="J168" t="n">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>AP1S2</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0.003364015010462315</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.6884057971014492</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.5473684210526316</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.005338670168153953</v>
+      </c>
+      <c r="F169" t="n">
+        <v>138</v>
+      </c>
+      <c r="G169" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="H169" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="I169" t="n">
+        <v>106</v>
+      </c>
+      <c r="J169" t="n">
+        <v>128.25</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>RAC1</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0.003920619093756698</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.00550941654543853</v>
+      </c>
+      <c r="F170" t="n">
+        <v>153</v>
+      </c>
+      <c r="G170" t="n">
+        <v>148</v>
+      </c>
+      <c r="H170" t="n">
+        <v>148</v>
+      </c>
+      <c r="I170" t="n">
+        <v>124</v>
+      </c>
+      <c r="J170" t="n">
+        <v>143.25</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>LCK</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0.004143449317725333</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.7196969696969697</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.6105263157894737</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.005815186549111093</v>
+      </c>
+      <c r="F171" t="n">
+        <v>159</v>
+      </c>
+      <c r="G171" t="n">
+        <v>161.5</v>
+      </c>
+      <c r="H171" t="n">
+        <v>161.5</v>
+      </c>
+      <c r="I171" t="n">
+        <v>149</v>
+      </c>
+      <c r="J171" t="n">
+        <v>157.75</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>TSPO</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0.00465441641846053</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.7279693486590039</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.6263157894736842</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.005821929464211155</v>
+      </c>
+      <c r="F172" t="n">
+        <v>175</v>
+      </c>
+      <c r="G172" t="n">
+        <v>170</v>
+      </c>
+      <c r="H172" t="n">
+        <v>170</v>
+      </c>
+      <c r="I172" t="n">
+        <v>152</v>
+      </c>
+      <c r="J172" t="n">
+        <v>166.75</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>PNOC</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0.001531196776734233</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.004376240622425825</v>
+      </c>
+      <c r="F173" t="n">
+        <v>40</v>
+      </c>
+      <c r="G173" t="n">
+        <v>32</v>
+      </c>
+      <c r="H173" t="n">
+        <v>32</v>
+      </c>
+      <c r="I173" t="n">
+        <v>26</v>
+      </c>
+      <c r="J173" t="n">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ARPC5L</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0.004259848897911832</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.7116104868913857</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.5947368421052631</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.005402407654451636</v>
+      </c>
+      <c r="F174" t="n">
+        <v>165</v>
+      </c>
+      <c r="G174" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="H174" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="I174" t="n">
+        <v>112</v>
+      </c>
+      <c r="J174" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>PPAPDC1B</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0.001362644368639904</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.6070287539936102</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.3526315789473684</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.003724124250957546</v>
+      </c>
+      <c r="F175" t="n">
+        <v>27</v>
+      </c>
+      <c r="G175" t="n">
+        <v>10</v>
+      </c>
+      <c r="H175" t="n">
+        <v>10</v>
+      </c>
+      <c r="I175" t="n">
+        <v>7</v>
+      </c>
+      <c r="J175" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>TMEM66</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0.003107636357606511</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.00490480250446528</v>
+      </c>
+      <c r="F176" t="n">
+        <v>127</v>
+      </c>
+      <c r="G176" t="n">
+        <v>127</v>
+      </c>
+      <c r="H176" t="n">
+        <v>127</v>
+      </c>
+      <c r="I176" t="n">
+        <v>63</v>
+      </c>
+      <c r="J176" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>RARRES3</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0.005792658265147198</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.7509881422924901</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.6684210526315789</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.006130640461886308</v>
+      </c>
+      <c r="F177" t="n">
+        <v>187</v>
+      </c>
+      <c r="G177" t="n">
+        <v>185</v>
+      </c>
+      <c r="H177" t="n">
+        <v>185</v>
+      </c>
+      <c r="I177" t="n">
+        <v>167</v>
+      </c>
+      <c r="J177" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>HCST</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0.004374495685551428</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.7251908396946565</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.6210526315789473</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.005683420032429787</v>
+      </c>
+      <c r="F178" t="n">
+        <v>169</v>
+      </c>
+      <c r="G178" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="H178" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="I178" t="n">
+        <v>140</v>
+      </c>
+      <c r="J178" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>CTSS</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0.005970947611928677</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.7630522088353414</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.6894736842105263</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.006318322377449898</v>
+      </c>
+      <c r="F179" t="n">
+        <v>190</v>
+      </c>
+      <c r="G179" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="H179" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="I179" t="n">
+        <v>176</v>
+      </c>
+      <c r="J179" t="n">
+        <v>185.25</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>TIGIT</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0.002253846892855651</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.6375838926174496</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.4315789473684211</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.004232582692530929</v>
+      </c>
+      <c r="F180" t="n">
+        <v>90</v>
+      </c>
+      <c r="G180" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="H180" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="I180" t="n">
+        <v>21</v>
+      </c>
+      <c r="J180" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>SNX2</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0.002399123001258887</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.6440677966101694</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.4473684210526316</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.004387807175640346</v>
+      </c>
+      <c r="F181" t="n">
+        <v>98</v>
+      </c>
+      <c r="G181" t="n">
+        <v>70</v>
+      </c>
+      <c r="H181" t="n">
+        <v>70</v>
+      </c>
+      <c r="I181" t="n">
+        <v>28</v>
+      </c>
+      <c r="J181" t="n">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>CD3D</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0.002595378682856017</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.6643356643356644</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.4947368421052631</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.004521892055444</v>
+      </c>
+      <c r="F182" t="n">
+        <v>109</v>
+      </c>
+      <c r="G182" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="H182" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="I182" t="n">
+        <v>33</v>
+      </c>
+      <c r="J182" t="n">
+        <v>86.75</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>LDHB</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0.003701454349254011</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.6909090909090909</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.5526315789473684</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.005085634042335131</v>
+      </c>
+      <c r="F183" t="n">
+        <v>149</v>
+      </c>
+      <c r="G183" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="H183" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="I183" t="n">
+        <v>81</v>
+      </c>
+      <c r="J183" t="n">
+        <v>126.75</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>MYL12A</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0.003108451457589463</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.6737588652482269</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.5157894736842105</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.004768006012067808</v>
+      </c>
+      <c r="F184" t="n">
+        <v>128</v>
+      </c>
+      <c r="G184" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="H184" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="I184" t="n">
+        <v>48</v>
+      </c>
+      <c r="J184" t="n">
+        <v>103.75</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>TALDO1</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0.004354763233363314</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.7169811320754716</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.6052631578947368</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.005759746940605233</v>
+      </c>
+      <c r="F185" t="n">
+        <v>168</v>
+      </c>
+      <c r="G185" t="n">
+        <v>159</v>
+      </c>
+      <c r="H185" t="n">
+        <v>159</v>
+      </c>
+      <c r="I185" t="n">
+        <v>144</v>
+      </c>
+      <c r="J185" t="n">
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>SH2D2A</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0.003364936226490867</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.6810035842293907</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.531578947368421</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.00521799284960418</v>
+      </c>
+      <c r="F186" t="n">
+        <v>139</v>
+      </c>
+      <c r="G186" t="n">
+        <v>128</v>
+      </c>
+      <c r="H186" t="n">
+        <v>128</v>
+      </c>
+      <c r="I186" t="n">
+        <v>92</v>
+      </c>
+      <c r="J186" t="n">
+        <v>121.75</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>OAZ1</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0.003760552717802376</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.6909090909090909</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.5526315789473684</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.00507064592746352</v>
+      </c>
+      <c r="F187" t="n">
+        <v>151</v>
+      </c>
+      <c r="G187" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="H187" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="I187" t="n">
+        <v>79</v>
+      </c>
+      <c r="J187" t="n">
+        <v>126.75</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>NOSIP</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0.002947157988788708</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.6643356643356644</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.4947368421052631</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.004522700587462915</v>
+      </c>
+      <c r="F188" t="n">
+        <v>121</v>
+      </c>
+      <c r="G188" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="H188" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="I188" t="n">
+        <v>34</v>
+      </c>
+      <c r="J188" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>SAMD3</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0.00251271394552194</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.6551724137931034</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.004580680320586883</v>
+      </c>
+      <c r="F189" t="n">
+        <v>103</v>
+      </c>
+      <c r="G189" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="H189" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="I189" t="n">
+        <v>36</v>
+      </c>
+      <c r="J189" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>GABARAP</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0.00551565829733539</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.7421875</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.6526315789473685</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.005922060387039869</v>
+      </c>
+      <c r="F190" t="n">
+        <v>184</v>
+      </c>
+      <c r="G190" t="n">
+        <v>179</v>
+      </c>
+      <c r="H190" t="n">
+        <v>179</v>
+      </c>
+      <c r="I190" t="n">
+        <v>158</v>
+      </c>
+      <c r="J190" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>SPIB</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0.0008975050301744705</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.5775075987841946</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.2684210526315789</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.00283140028479082</v>
+      </c>
+      <c r="F191" t="n">
+        <v>5</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>SH2D1A</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0.002606781159087847</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.6506849315068494</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.4631578947368421</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.004423748216671499</v>
+      </c>
+      <c r="F192" t="n">
+        <v>110</v>
+      </c>
+      <c r="G192" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="H192" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="I192" t="n">
+        <v>31</v>
+      </c>
+      <c r="J192" t="n">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
